--- a/collected_data.xlsx
+++ b/collected_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>MappedCode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Label</t>
         </is>
       </c>
@@ -456,7 +461,12 @@
 </t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '-', '&gt;', 'variable_0', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '.', 'variable_0', 'variable_11', 'variable_5', 'variable_11', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_4', 'variable_12', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_15', 'variable_11', 'variable_7', 'variable_0', 'variable_2', 'variable_6', 'variable_16', 'variable_6', 'variable_17', 'variable_18', 'variable_19', 'variable_6', 'variable_20', 'variable_9', 'variable_18', 'variable_7', 'variable_5', 'variable_6', 'variable_10', '(', 'variable_21', ',', '', 'variable_8', 'variable_5', 'variable_11', 'variable_5', 'variable_22', 'variable_8', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '-', '&gt;', 'variable_0', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '.', 'variable_0', 'variable_5', 'variable_23', 'variable_24', 'variable_6', '', '=', '', 'variable_25', 'variable_6', 'variable_5', 'variable_16', 'variable_2', 'variable_16', 'variable_11', 'variable_5', 'variable_11', 'variable_12', 'variable_23', 'variable_24', 'variable_6', '(', 'variable_0', 'variable_11', 'variable_5', 'variable_11', 'variable_4', 'variable_5', 'variable_23', 'variable_24', 'variable_6', ',', '', 'variable_8', 'variable_5', 'variable_11', 'variable_5', 'variable_22', 'variable_8', ')', ';', '']</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -480,7 +490,12 @@
   </t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['', 'variable_1', 'variable_2', 'variable_3', 'variable_4', '*', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_7', 'variable_0', 'variable_3', 'variable_0', '', '=', '', 'variable_10', 'variable_11', 'variable_12', 'variable_6', 'variable_10', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', 'variable_17', 'variable_0', 'variable_14', 'variable_7', 'variable_8', 'variable_13', 'variable_18', 'variable_13', 'variable_19', 'variable_20', 'variable_21', 'variable_13', 'variable_22', 'variable_4', 'variable_20', 'variable_14', 'variable_3', 'variable_13', 'variable_16', '(', 'variable_23', ',', '', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', ')', ';', '', '', '', 'variable_20', 'variable_5', '', '(', '!', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', '-', '&gt;', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', '.', 'variable_4', 'variable_24', '(', ')', ')', '', '{', '', '', '', '', '', 'variable_16', 'variable_13', 'variable_3', 'variable_2', 'variable_16', 'variable_14', '', 'variable_14', 'variable_2', 'variable_8', 'variable_8', 'variable_25', 'variable_3', 'variable_16', ';', '', '', '', '}', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_26', 'variable_25', 'variable_13', '', '=', '', 'variable_27', 'variable_13', 'variable_3', 'variable_18', 'variable_8', 'variable_18', 'variable_0', 'variable_3', 'variable_0', 'variable_10', 'variable_26', 'variable_25', 'variable_13', '(', 'variable_7', 'variable_0', 'variable_3', 'variable_0', 'variable_6', 'variable_3', 'variable_26', 'variable_25', 'variable_13', ',', '', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', ')', ';', '', '', '', 'variable_20', 'variable_5', '', '(', '!', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', '-', '&gt;', 'variable_15', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_15', '.', 'variable_4', 'variable_24', '(', ')', ')', '', '{', '', '', '', '', '', 'variable_16', 'variable_13', 'variable_3', 'variable_2', 'variable_16', 'variable_14', '', 'variable_14', 'variable_2', 'variable_8', 'variable_8', 'variable_25', 'variable_3', 'variable_16', ';', '', '', '', '}', '', '', '', '', 'variable_10', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', 'variable_28', 'variable_13', 'variable_5', 'variable_13', 'variable_16', 'variable_13', 'variable_14', 'variable_21', 'variable_13', '', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', 'variable_6', 'variable_16', 'variable_13', 'variable_5', '(', '*', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', ')', ';', '', '', '/', '/', '', 'variable_10', 'variable_23', 'variable_20', 'variable_15', '', 'variable_29', 'variable_20', 'variable_8', 'variable_8', '', 'variable_21', 'variable_0', 'variable_8', 'variable_8', '', 'variable_30', 'variable_2', 'variable_5', 'variable_6', '-', '&gt;', 'variable_28', 'variable_13', 'variable_5', '(', ')', '', '', '', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', '-', '&gt;', 'variable_7', 'variable_8', 'variable_6', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', '.', 'variable_7', 'variable_0', 'variable_3', 'variable_0', '', '=', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_7', 'variable_0', 'variable_3', 'variable_0', ';', '', '', '', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', '-', '&gt;', 'variable_7', 'variable_8', 'variable_6', 'variable_3', 'variable_13', 'variable_14', 'variable_15', 'variable_4', 'variable_16', '.', 'variable_7', 'variable_3', 'variable_26', 'variable_25', 'variable_13', '', '=', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_26', 'variable_25', 'variable_13', ';', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,7 +516,12 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', '(', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_25', 'variable_20', 'variable_23', 'variable_22', 'variable_26', 'variable_28', 'variable_18', 'variable_29', 'variable_30', 'variable_27', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', '', 'variable_27', 'variable_30', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', 'variable_25', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', ',', '', 'variable_17', 'variable_20', 'variable_32', ':', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_30', 'variable_29', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_29', '(', ')', ')', ')', ';', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_17', 'variable_13', '', 'variable_20', 'variable_30', 'variable_13', 'variable_11', '', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', '', '=', '', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', 'variable_3', 'variable_13', '-', '&gt;', 'variable_25', 'variable_14', 'variable_10', '&lt;', 'variable_22', 'variable_12', 'variable_13', '6', '4', '&gt;', '(', ')', ';', '', 'variable_10', 'variable_11', 'variable_12', 'variable_17', 'variable_13', '', 'variable_20', 'variable_30', 'variable_13', 'variable_11', '', 'variable_29', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_25', 'variable_20', 'variable_23', 'variable_30', 'variable_14', 'variable_17', '', '=', '', 'variable_29', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_25', 'variable_20', 'variable_23', 'variable_30', 'variable_14', 'variable_17', 'variable_3', 'variable_13', '-', '&gt;', 'variable_25', 'variable_14', 'variable_10', '&lt;', 'variable_16', '&gt;', '(', ')', ';', '', '', 'variable_26', 'variable_3', 'variable_25', 'variable_20', 'variable_23', 'variable_30', 'variable_14', 'variable_17', '(', 'variable_22', ')', '', '=', '', 'variable_29', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_25', 'variable_20', 'variable_23', 'variable_30', 'variable_14', 'variable_17', '(', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', '(', 'variable_22', ')', ')', ';', '', 'variable_25', 'variable_22', 'variable_17', 'variable_22', 'variable_13', 'variable_14', 'variable_26', '(', 'variable_18', 'variable_14', 'variable_25', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_27', 'variable_20', 'variable_21', '(', 'variable_22', ')', ')', '', '=', '', 'variable_13', 'variable_18', 'variable_30', 'variable_14', ';', '']</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,7 +544,12 @@
 </t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', '(', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_27', 'variable_20', 'variable_23', 'variable_22', 'variable_26', 'variable_29', 'variable_18', 'variable_25', 'variable_28', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '', 'variable_30', 'variable_28', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', 'variable_27', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', ',', '', 'variable_17', 'variable_20', 'variable_32', ':', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_28', 'variable_25', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_25', '(', ')', ')', ')', ';', '', '', 'variable_22', 'variable_12', 'variable_13', '6', '4', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '=', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_30', 'variable_20', 'variable_21', '(', 'variable_22', ')', ';', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', '0', '', '&lt;', '=', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '&amp;', '&amp;', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '&lt;', '', 'variable_34', 'variable_3', 'variable_35', 'variable_28', 'variable_23', 'variable_23', ',', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_27', 'variable_20', 'variable_23', 'variable_22', 'variable_26', 'variable_29', 'variable_18', 'variable_25', 'variable_28', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_5', 'variable_23', 'variable_14', 'variable_30', 'variable_14', 'variable_12', 'variable_13', 'variable_17', '', 'variable_22', 'variable_12', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', '', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', 'variable_30', 'variable_28', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_22', 'variable_12', '', '[', '0', ',', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_34', 'variable_3', 'variable_35', 'variable_28', 'variable_23', 'variable_23', ',', '', '"', ')', '', 'variable_31', 'variable_28', 'variable_13', '', 'variable_25', 'variable_11', 'variable_13', '', '"', ',', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', ')', ';', '', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '(', 'variable_22', ')', '', '=', '', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '(', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', ';', '', 'variable_27', 'variable_22', 'variable_17', 'variable_22', 'variable_13', 'variable_14', 'variable_26', '(', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', '', '=', '', 'variable_13', 'variable_18', 'variable_28', 'variable_14', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -543,7 +568,12 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', '', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', '', '!', '=', '', 'variable_8', 'variable_4', 'variable_9', 'variable_9', 'variable_6', 'variable_5', 'variable_10', ')', '', '{', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', '-', '&gt;', 'variable_11', 'variable_9', 'variable_12', 'variable_13', 'variable_10', '(', ')', ';', '', '', '', '', '', 'variable_2', 'variable_3', 'variable_10', '', '(', 'variable_0', 'variable_8', 'variable_5', '', 'variable_0', '', '=', '', '0', ';', '', 'variable_0', '', '&lt;', '', 'variable_11', 'variable_3', 'variable_8', 'variable_5', 'variable_12', 'variable_14', 'variable_5', '.', 'variable_8', 'variable_4', 'variable_15', 'variable_16', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', '(', ')', ';', '', '+', '+', 'variable_0', ')', '', '{', '', '', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', '-', '&gt;', 'variable_6', 'variable_4', 'variable_7', 'variable_17', 'variable_16', 'variable_18', 'variable_13', 'variable_11', 'variable_19', '(', 'variable_20', 'variable_12', 'variable_8', 'variable_7', 'variable_3', 'variable_10', '(', '*', 'variable_11', 'variable_3', 'variable_8', 'variable_5', 'variable_12', 'variable_14', 'variable_5', '.', 'variable_15', 'variable_4', 'variable_5', 'variable_13', 'variable_18', 'variable_9', 'variable_12', 'variable_16', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', '(', 'variable_0', ')', ')', ')', ';', '', '', '', '', '', '}', '', '', '', '}', '']</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -561,7 +591,12 @@
       }</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_7', 'variable_5', 'variable_2', '*', '', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', 'variable_9', 'variable_5', 'variable_10', 'variable_3', 'variable_4', 'variable_2', 'variable_11', '', '=', '', 'variable_0', 'variable_2', 'variable_3', 'variable_5', 'variable_10', 'variable_12', 'variable_5', '.', 'variable_13', 'variable_7', 'variable_5', 'variable_6', 'variable_14', 'variable_15', 'variable_10', 'variable_9', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', '(', 'variable_16', ')', ';', '', '', '', '', '', '', '', 'variable_16', 'variable_17', '', '(', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', 'variable_9', 'variable_5', 'variable_10', 'variable_3', 'variable_4', 'variable_2', 'variable_11', '', '!', '=', '', 'variable_3', 'variable_7', 'variable_15', 'variable_15', 'variable_8', 'variable_5', 'variable_11', ')', '', '{', '', '', '', '', '', '', '', '', '', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', 'variable_4', '-', '&gt;', 'variable_8', 'variable_7', 'variable_4', 'variable_18', 'variable_9', 'variable_14', 'variable_6', 'variable_0', 'variable_19', '(', 'variable_20', 'variable_10', 'variable_3', 'variable_4', 'variable_2', 'variable_11', '(', '*', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', 'variable_9', 'variable_5', 'variable_10', 'variable_3', 'variable_4', 'variable_2', 'variable_11', ')', ')', ';', '', '', '', '', '', '', '', '}', '', 'variable_10', 'variable_15', 'variable_4', 'variable_10', '', '{', '', '', '', '', '', '', '', '', '', 'variable_2', 'variable_7', 'variable_5', 'variable_8', 'variable_7', 'variable_5', 'variable_4', '-', '&gt;', 'variable_8', 'variable_7', 'variable_4', 'variable_18', 'variable_9', 'variable_14', 'variable_6', 'variable_0', 'variable_19', '(', 'variable_20', 'variable_10', 'variable_3', 'variable_4', 'variable_2', 'variable_11', '(', ')', ')', ';', '', '', '', '', '', '', '', '}']</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -577,7 +612,12 @@
 </t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', '', '(', 'variable_4', 'variable_5', 'variable_6', '', 'variable_4', 'variable_7', 'variable_8', '', '=', '', '0', ';', '', 'variable_4', 'variable_7', 'variable_8', '', '&lt;', '', 'variable_5', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', ';', '', '+', '+', 'variable_4', 'variable_7', 'variable_8', ')', '', '{', '', '', '', 'variable_4', 'variable_5', 'variable_6', '', 'variable_17', 'variable_13', 'variable_6', 'variable_18', 'variable_19', '', '=', '', 'variable_4', 'variable_16', 'variable_11', '1', 'variable_7', '', '?', '', '0', '', ':', '', 'variable_4', 'variable_5', 'variable_7', 'variable_4', 'variable_18', 'variable_15', 'variable_16', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_4', 'variable_7', 'variable_8', ',', '', '0', ')', ';', '', '', '', 'variable_18', 'variable_2', 'variable_5', 'variable_16', 'variable_6', '', 'variable_13', 'variable_9', 'variable_6', 'variable_2', '&amp;', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_4', 'variable_7', 'variable_8', ')', ';', '']</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -607,7 +647,12 @@
     </t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_20', 'variable_13', 'variable_18', 'variable_22', 'variable_15', '(', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', 'variable_8', 'variable_12', 'variable_21', 'variable_29', 'variable_13', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', '2', '-', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', 'variable_20', 'variable_23', '', 'variable_13', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', '.', '', 'variable_32', 'variable_11', 'variable_13', ':', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '', '', 'variable_22', 'variable_34', '', '(', 'variable_29', 'variable_17', 'variable_14', 'variable_3', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', ')', '', '{', '', '', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', '', '', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '', '=', '=', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ',', '', '', '', '', '', '', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '', 'variable_20', 'variable_12', 'variable_25', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_19', 'variable_20', 'variable_26', 'variable_14', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_17', 'variable_20', 'variable_30', 'variable_14', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', '', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', ';', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '', '}', '', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', '=', '=', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_25', 'variable_22', 'variable_30', 'variable_3', 'variable_17', 'variable_22', 'variable_37', 'variable_14', '(', '0', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', 'variable_38', 'variable_29', 'variable_30', 'variable_31', 'variable_14', 'variable_18', '', 'variable_11', 'variable_34', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_30', 'variable_20', 'variable_13', 'variable_10', 'variable_19', '', 'variable_34', 'variable_22', 'variable_18', 'variable_17', 'variable_13', '', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', '', 'variable_11', 'variable_34', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', 'variable_32', 'variable_11', 'variable_13', '', '"', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -622,7 +667,12 @@
 </t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '-', '&gt;', 'variable_0', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '.', 'variable_0', 'variable_11', 'variable_5', 'variable_11', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_4', 'variable_12', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_15', 'variable_11', 'variable_7', 'variable_0', 'variable_2', 'variable_6', 'variable_16', 'variable_6', 'variable_17', 'variable_18', 'variable_19', 'variable_6', 'variable_20', 'variable_9', 'variable_18', 'variable_7', 'variable_5', 'variable_6', 'variable_10', '(', 'variable_21', ',', '', 'variable_8', 'variable_5', 'variable_11', 'variable_5', 'variable_22', 'variable_8', ')', ';', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '-', '&gt;', 'variable_0', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '.', 'variable_0', 'variable_5', 'variable_23', 'variable_24', 'variable_6', '', '=', '', 'variable_25', 'variable_6', 'variable_5', 'variable_16', 'variable_2', 'variable_16', 'variable_11', 'variable_5', 'variable_11', 'variable_12', 'variable_23', 'variable_24', 'variable_6', '(', 'variable_0', 'variable_11', 'variable_5', 'variable_11', 'variable_4', 'variable_5', 'variable_23', 'variable_24', 'variable_6', ',', '', 'variable_8', 'variable_5', 'variable_11', 'variable_5', 'variable_22', 'variable_8', ')', ';', '']</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +701,12 @@
 </t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_10', 'variable_4', 'variable_11', 'variable_3', 'variable_12', 'variable_13', 'variable_3', '', '=', '', 'variable_14', 'variable_12', 'variable_3', 'variable_15', 'variable_8', 'variable_16', 'variable_4', 'variable_11', 'variable_3', 'variable_12', 'variable_13', 'variable_3', '(', 'variable_17', ',', '', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', ')', ';', '', '', '', 'variable_19', 'variable_5', '', '(', '!', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '-', '&gt;', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '.', 'variable_4', 'variable_20', '(', ')', ')', '', '{', '', '', '', '', '', 'variable_21', 'variable_12', 'variable_3', 'variable_2', 'variable_21', 'variable_11', '', 'variable_11', 'variable_2', 'variable_8', 'variable_8', 'variable_22', 'variable_3', 'variable_21', ';', '', '', '', '}', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', '*', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_7', 'variable_0', 'variable_3', 'variable_0', '', '=', '', 'variable_23', 'variable_24', 'variable_25', 'variable_6', 'variable_23', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', 'variable_26', 'variable_0', 'variable_11', 'variable_7', 'variable_8', 'variable_12', 'variable_15', 'variable_12', 'variable_27', 'variable_19', 'variable_10', 'variable_12', 'variable_28', 'variable_4', 'variable_19', 'variable_11', 'variable_3', 'variable_12', 'variable_21', '(', 'variable_17', ',', '', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', ')', ';', '', '', '', 'variable_19', 'variable_5', '', '(', '!', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '-', '&gt;', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '.', 'variable_4', 'variable_20', '(', ')', ')', '', '{', '', '', '', '', '', 'variable_21', 'variable_12', 'variable_3', 'variable_2', 'variable_21', 'variable_11', '', 'variable_11', 'variable_2', 'variable_8', 'variable_8', 'variable_22', 'variable_3', 'variable_21', ';', '', '', '', '}', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_29', 'variable_22', 'variable_12', '', '=', '', 'variable_14', 'variable_12', 'variable_3', 'variable_15', 'variable_8', 'variable_15', 'variable_0', 'variable_3', 'variable_0', 'variable_23', 'variable_29', 'variable_22', 'variable_12', '(', 'variable_7', 'variable_0', 'variable_3', 'variable_0', 'variable_6', 'variable_3', 'variable_29', 'variable_22', 'variable_12', ',', '', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', ')', ';', '', '', '', 'variable_19', 'variable_5', '', '(', '!', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '-', '&gt;', 'variable_18', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_18', '.', 'variable_4', 'variable_20', '(', ')', ')', '', '{', '', '', '', '', '', 'variable_21', 'variable_12', 'variable_3', 'variable_2', 'variable_21', 'variable_11', '', 'variable_11', 'variable_2', 'variable_8', 'variable_8', 'variable_22', 'variable_3', 'variable_21', ';', '', '', '', '}', '', '', '', '', 'variable_23', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', 'variable_30', 'variable_12', 'variable_5', 'variable_12', 'variable_21', 'variable_12', 'variable_11', 'variable_10', 'variable_12', '', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', 'variable_6', 'variable_21', 'variable_12', 'variable_5', '(', '*', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', ')', ';', '', '', '/', '/', '', 'variable_23', 'variable_17', 'variable_19', 'variable_18', '', 'variable_31', 'variable_19', 'variable_8', 'variable_8', '', 'variable_10', 'variable_0', 'variable_8', 'variable_8', '', 'variable_32', 'variable_2', 'variable_5', 'variable_6', '-', '&gt;', 'variable_30', 'variable_12', 'variable_5', '(', ')', '', '', '', '', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '-', '&gt;', 'variable_7', 'variable_8', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '.', 'variable_10', 'variable_3', 'variable_13', '', '=', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_10', 'variable_4', 'variable_11', 'variable_3', 'variable_12', 'variable_13', 'variable_3', ';', '', '', '', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '-', '&gt;', 'variable_7', 'variable_8', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '.', 'variable_7', 'variable_0', 'variable_3', 'variable_0', '', '=', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_7', 'variable_0', 'variable_3', 'variable_0', ';', '', '', '', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '-', '&gt;', 'variable_7', 'variable_8', 'variable_6', 'variable_3', 'variable_12', 'variable_11', 'variable_18', 'variable_4', 'variable_21', '.', 'variable_7', 'variable_3', 'variable_29', 'variable_22', 'variable_12', '', '=', '', 'variable_3', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_6', 'variable_3', 'variable_29', 'variable_22', 'variable_12', ';', '']</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +723,12 @@
     </t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_0', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_6', 'variable_8', 'variable_6', 'variable_5', '(', 'variable_5', 'variable_12', 'variable_13', 'variable_6', ',', '', 'variable_7', 'variable_14', 'variable_15', 'variable_6', ',', '', 'variable_16', 'variable_9', 'variable_7', 'variable_17', 'variable_6', 'variable_10', 'variable_5', 'variable_18', 'variable_10', 'variable_10', 'variable_14', 'variable_12', 'variable_0', 'variable_9', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_19', 'variable_7', 'variable_5', 'variable_18', 'variable_10', 'variable_10', 'variable_14', 'variable_12', '(', 'variable_10', 'variable_14', 'variable_7', 'variable_20', ',', '', 'variable_21', 'variable_4', 'variable_15', 'variable_8', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_22', 'variable_6', 'variable_5', 'variable_3', 'variable_6', 'variable_23', 'variable_14', 'variable_24', 'variable_12', 'variable_25', 'variable_26', 'variable_14', 'variable_7', 'variable_5', 'variable_4', 'variable_27', 'variable_14', 'variable_5', 'variable_4', 'variable_9', 'variable_7', '(', 'variable_28', 'variable_26', 'variable_14', 'variable_7', 'variable_5', 'variable_4', 'variable_27', 'variable_14', 'variable_5', 'variable_4', 'variable_9', 'variable_7', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '/', '*', 'variable_29', 'variable_26', 'variable_2', 'variable_2', 'variable_6', 'variable_10', '=', '*', '/', 'variable_7', 'variable_26', 'variable_30', 'variable_30', 'variable_13', 'variable_5', 'variable_10', ',', '', 'variable_10', 'variable_6', 'variable_28', 'variable_26', 'variable_4', 'variable_10', 'variable_6', 'variable_21', 'variable_31', 'variable_29', 'variable_12', 'variable_5', 'variable_6', 'variable_8', ',', '', 'variable_14', 'variable_30', 'variable_30', 'variable_9', 'variable_24', 'variable_14', 'variable_5', 'variable_4', 'variable_9', 'variable_7', 'variable_31', 'variable_5', 'variable_12', 'variable_13', 'variable_6', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_7', 'variable_26', 'variable_30', 'variable_30', 'variable_13', 'variable_5', 'variable_10', ',', '', 'variable_4', 'variable_8', 'variable_31', 'variable_17', 'variable_14', 'variable_10', 'variable_4', 'variable_14', 'variable_29', 'variable_30', 'variable_6', ',', '', '&amp;', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,7 +742,12 @@
     </t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', '6', '4', '', 'variable_0', 'variable_4', '', '=', '', 'variable_5', 'variable_3', 'variable_6', '-', '&gt;', 'variable_7', 'variable_8', 'variable_7', 'variable_7', 'variable_0', 'variable_9', 'variable_2', 'variable_10', 'variable_7', 'variable_3', 'variable_11', 'variable_3', 'variable_8', '(', ')', '-', '&gt;', 'variable_12', 'variable_8', 'variable_3', 'variable_13', 'variable_8', 'variable_14', 'variable_15', 'variable_4', '(', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -701,7 +766,12 @@
     </t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['', '', '', 'variable_1', 'variable_2', '', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_0', 'variable_10', 'variable_9', 'variable_3', 'variable_0', 'variable_11', 'variable_4', '', '&gt;', '', '0', ')', '', '{', '', '', '', '', '', '', 'variable_6', 'variable_12', 'variable_13', 'variable_9', 'variable_0', 'variable_7', 'variable_10', 'variable_4', 'variable_13', '', '=', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_0', 'variable_10', 'variable_3', '-', '&gt;', 'variable_10', 'variable_12', 'variable_8', 'variable_12', '.', 'variable_0', '3', '2', '[', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_0', 'variable_10', 'variable_9', 'variable_3', 'variable_0', 'variable_11', 'variable_4', '', '-', '', '1', ']', ';', '', '', '', '', '}', '', '', '', '', 'variable_14', 'variable_15', 'variable_7', 'variable_3', 'variable_8', '', 'variable_0', 'variable_7', 'variable_8', '', 'variable_10', 'variable_12', 'variable_8', 'variable_12', 'variable_9', 'variable_16', 'variable_12', 'variable_7', 'variable_17', '', '=', '', 'variable_18', 'variable_19', 'variable_6', 'variable_20', 'variable_0', 'variable_6', 'variable_4', 'variable_7', 'variable_3', 'variable_0', 'variable_15', 'variable_7', 'variable_3', '(', 'variable_10', 'variable_12', 'variable_8', 'variable_12', ')', ';', '', '', '', '', 'variable_21', 'variable_2', 'variable_22', 'variable_0', 'variable_8', 'variable_4', 'variable_23', 'variable_7', 'variable_8', 'variable_24', 'variable_16', 'variable_16', 'variable_12', 'variable_25', '*', '', 'variable_15', 'variable_19', 'variable_8', 'variable_26', 'variable_19', 'variable_8', 'variable_9', 'variable_3', 'variable_27', 'variable_12', 'variable_26', 'variable_4', '', '=', '', 'variable_21', 'variable_2', 'variable_22', 'variable_0', 'variable_8', 'variable_4', 'variable_23', 'variable_7', 'variable_8', 'variable_24', 'variable_16', 'variable_16', 'variable_12', 'variable_25', 'variable_28', 'variable_16', 'variable_4', 'variable_12', 'variable_8', 'variable_4', '(', 'variable_18', 'variable_19', 'variable_6', 'variable_20', 'variable_0', 'variable_6', 'variable_4', 'variable_7', 'variable_3', 'variable_0', 'variable_15', 'variable_7', 'variable_3', '(', 'variable_10', 'variable_12', 'variable_8', 'variable_12', ')', ')', ';', '', '', '', '', 'variable_15', 'variable_19', 'variable_8', 'variable_26', 'variable_19', 'variable_8', 'variable_9', 'variable_3', 'variable_27', 'variable_12', 'variable_26', 'variable_4', '-', '&gt;', 'variable_10', 'variable_12', 'variable_8', 'variable_12', '[', '0', ']', '', '=', '', 'variable_6', 'variable_12', 'variable_13', 'variable_9', 'variable_0', 'variable_7', 'variable_10', 'variable_4', 'variable_13', '', '+', '', '1', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -732,7 +802,12 @@
     </t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', '', '(', 'variable_4', 'variable_5', 'variable_6', '', 'variable_4', 'variable_7', 'variable_8', '', '=', '', '0', ';', '', 'variable_4', 'variable_7', 'variable_8', '', '&lt;', '', 'variable_5', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', ';', '', '+', '+', 'variable_4', 'variable_7', 'variable_8', ')', '', '{', '', '', '', '', '', '', '', 'variable_17', 'variable_18', 'variable_4', 'variable_14', 'variable_15', '', '(', 'variable_4', 'variable_7', 'variable_8', '', '&gt;', '=', '', 'variable_16', 'variable_19', 'variable_14', 'variable_4', 'variable_6', 'variable_16', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', ')', ')', '', '{', '', '', '', '', '', '', '', '', '', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', '+', '+', ';', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', 'variable_21', 'variable_2', 'variable_5', 'variable_16', 'variable_6', '', 'variable_13', 'variable_9', 'variable_6', 'variable_2', '&amp;', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_4', 'variable_7', 'variable_8', ')', ';', '', '', '', '', '', '', '', 'variable_4', 'variable_0', '', '(', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '&gt;', '=', '', '0', '', '&amp;', '&amp;', '', '(', 'variable_10', 'variable_13', 'variable_8', 'variable_14', 'variable_15', 'variable_5', 'variable_22', 'variable_6', 'variable_18', 'variable_11', '', '&lt;', '=', '', '0', '', '|', '|', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '&lt;', '', 'variable_10', 'variable_13', 'variable_8', 'variable_14', 'variable_15', 'variable_5', 'variable_22', 'variable_6', 'variable_18', 'variable_11', ')', ')', '', '{', '', '', '', '', '', '', '', '', '', 'variable_4', 'variable_0', '', '(', 'variable_20', 'variable_4', 'variable_5', 'variable_13', 'variable_3', 'variable_23', 'variable_11', 'variable_2', 'variable_9', 'variable_6', 'variable_19', 'variable_9', 'variable_6', 'variable_11', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', 'variable_19', 'variable_15', 'variable_3', 'variable_11', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_21', 'variable_2', 'variable_9', 'variable_5', 'variable_6', 'variable_16', '[', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', '', '-', '', '1', ']', '[', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', ']', '', '=', '', '1', ';', '', '', '', '', '', '', '', '', '', '}', '', 'variable_15', 'variable_14', 'variable_16', 'variable_15', '', 'variable_4', 'variable_0', '', '(', 'variable_9', 'variable_16', 'variable_15', 'variable_11', 'variable_17', 'variable_15', 'variable_4', 'variable_22', 'variable_18', 'variable_6', 'variable_16', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', 'variable_19', 'variable_15', 'variable_3', 'variable_11', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_21', 'variable_2', 'variable_9', 'variable_5', 'variable_6', 'variable_16', '[', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', '', '-', '', '1', ']', '[', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', ']', '', '+', '=', '', 'variable_17', 'variable_15', 'variable_4', 'variable_22', 'variable_18', 'variable_6', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_4', 'variable_7', 'variable_8', ')', ';', '', '', '', '', '', '', '', '', '', '}', '', 'variable_15', 'variable_14', 'variable_16', 'variable_15', '', '{', '', '', '', '', '', '', '', '', '', '', '', 'variable_19', 'variable_15', 'variable_3', 'variable_11', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_21', 'variable_2', 'variable_9', 'variable_5', 'variable_6', 'variable_16', '[', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', '', '-', '', '1', ']', '[', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', ']', '+', '+', ';', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', '', '', 'variable_4', 'variable_0', '', '(', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '&gt;', '', 'variable_10', 'variable_13', 'variable_8', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', 'variable_10', 'variable_13', 'variable_8', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', ';', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', '}', '', '', '', '', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,7 +823,12 @@
     </t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['variable_1', 'variable_2', 'variable_3', '', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_9', 'variable_10', 'variable_11', 'variable_12', '', '=', '', 'variable_12', 'variable_13', 'variable_14', 'variable_0', 'variable_3', 'variable_12', '.', 'variable_15', 'variable_4', 'variable_5', 'variable_16', 'variable_14', 'variable_11', 'variable_5', 'variable_11', 'variable_2', 'variable_3', 'variable_12', '(', ')', '', '-', '', '1', ';', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', '', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_17', 'variable_8', 'variable_14', 'variable_4', 'variable_11', 'variable_12', '', '=', '', 'variable_17', 'variable_8', 'variable_14', 'variable_4', 'variable_11', 'variable_12', '.', 'variable_15', 'variable_4', 'variable_5', 'variable_16', 'variable_14', 'variable_11', 'variable_5', 'variable_11', 'variable_2', 'variable_3', 'variable_12', '(', ')', ';', '', '', '', '', '', '', 'variable_8', 'variable_4', 'variable_3', 'variable_18', '', 'variable_13', 'variable_11', 'variable_19', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_9', 'variable_10', 'variable_6', 'variable_9', 'variable_18', 'variable_4', 'variable_2', 'variable_3', 'variable_12', '', '=', '', 'variable_20', 'variable_8', 'variable_3', 'variable_9', 'variable_10', 'variable_11', 'variable_21', 'variable_22', 'variable_8', 'variable_13', '&lt;', 'variable_23', '&gt;', '(', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_9', 'variable_10', 'variable_11', 'variable_12', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,7 +849,12 @@
     </t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['', 'variable_1', 'variable_2', 'variable_3', '', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_2', 'variable_8', 'variable_9', 'variable_6', '', '=', '', '-', '1', ';', '', '', 'variable_10', 'variable_11', 'variable_2', 'variable_12', 'variable_3', '', 'variable_0', 'variable_2', 'variable_3', '', 'variable_12', 'variable_9', 'variable_13', 'variable_4', 'variable_9', 'variable_2', 'variable_3', 'variable_7', 'variable_0', 'variable_8', 'variable_7', 'variable_12', 'variable_0', 'variable_14', 'variable_9', '', '=', '', 'variable_12', 'variable_9', 'variable_13', 'variable_4', 'variable_9', 'variable_2', 'variable_3', 'variable_7', 'variable_0', 'variable_8', 'variable_12', '-', '&gt;', 'variable_8', 'variable_0', 'variable_4', 'variable_12', '-', '&gt;', 'variable_8', 'variable_5', 'variable_3', 'variable_5', '[', '0', ']', ';', '', '', 'variable_0', 'variable_15', '', '(', 'variable_12', 'variable_9', 'variable_13', 'variable_4', 'variable_9', 'variable_2', 'variable_3', 'variable_7', 'variable_0', 'variable_8', 'variable_7', 'variable_12', 'variable_0', 'variable_14', 'variable_9', '', '&gt;', '', '0', ')', '', '{', '', '', '', '', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_2', 'variable_8', 'variable_9', 'variable_6', '', '=', '', 'variable_12', 'variable_9', 'variable_13', 'variable_4', 'variable_9', 'variable_2', 'variable_3', 'variable_7', 'variable_0', 'variable_8', 'variable_12', '-', '&gt;', 'variable_8', 'variable_5', 'variable_3', 'variable_5', '.', 'variable_0', '3', '2', '[', 'variable_12', 'variable_9', 'variable_13', 'variable_4', 'variable_9', 'variable_2', 'variable_3', 'variable_7', 'variable_0', 'variable_8', 'variable_7', 'variable_12', 'variable_0', 'variable_14', 'variable_9', '', '-', '', '1', ']', ';', '', '', '}', '', '', 'variable_10', 'variable_11', 'variable_2', 'variable_12', 'variable_3', '', 'variable_0', 'variable_2', 'variable_3', '', 'variable_8', 'variable_5', 'variable_3', 'variable_5', 'variable_7', 'variable_16', 'variable_5', 'variable_2', 'variable_17', '', '=', '', 'variable_18', 'variable_19', 'variable_4', 'variable_20', 'variable_0', 'variable_4', 'variable_9', 'variable_2', 'variable_12', 'variable_0', 'variable_11', 'variable_2', 'variable_12', '(', 'variable_8', 'variable_5', 'variable_3', 'variable_5', ')', ';', '', '', 'variable_21', 'variable_15', 'variable_22', 'variable_0', 'variable_3', 'variable_9', 'variable_23', 'variable_2', 'variable_3', 'variable_24', 'variable_16', 'variable_16', 'variable_5', 'variable_25', '*', '', 'variable_11', 'variable_19', 'variable_3', 'variable_26', 'variable_19', 'variable_3', 'variable_7', 'variable_12', 'variable_27', 'variable_5', 'variable_26', 'variable_9', '', '=', '', 'variable_21', 'variable_15', 'variable_22', 'variable_0', 'variable_3', 'variable_9', 'variable_23', 'variable_2', 'variable_3', 'variable_24', 'variable_16', 'variable_16', 'variable_5', 'variable_25', 'variable_28', 'variable_16', 'variable_9', 'variable_5', 'variable_3', 'variable_9', '(', 'variable_18', 'variable_19', 'variable_4', 'variable_20', 'variable_0', 'variable_4', 'variable_9', 'variable_2', 'variable_12', 'variable_0', 'variable_11', 'variable_2', 'variable_12', '(', 'variable_8', 'variable_5', 'variable_3', 'variable_5', ')', ')', ';', '', '', 'variable_11', 'variable_19', 'variable_3', 'variable_26', 'variable_19', 'variable_3', 'variable_7', 'variable_12', 'variable_27', 'variable_5', 'variable_26', 'variable_9', '-', '&gt;', 'variable_8', 'variable_5', 'variable_3', 'variable_5', '[', '0', ']', '', '=', '', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_2', 'variable_8', 'variable_9', 'variable_6', '', '+', '', '1', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -797,7 +882,12 @@
 	</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', 'variable_10', 'variable_4', 'variable_6', 'variable_12', 'variable_7', '', '=', '', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', 'variable_4', '-', '&gt;', 'variable_11', 'variable_6', 'variable_9', 'variable_4', '-', '&gt;', 'variable_11', 'variable_13', 'variable_5', 'variable_13', '[', '0', ']', ';', '', '', '', 'variable_14', 'variable_15', 'variable_10', 'variable_16', 'variable_17', 'variable_14', 'variable_18', 'variable_10', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_22', 'variable_18', 'variable_10', 'variable_18', 'variable_23', '(', 'variable_0', 'variable_2', 'variable_3', 'variable_5', 'variable_7', 'variable_24', 'variable_5', ',', '', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', 'variable_10', 'variable_4', 'variable_6', 'variable_12', 'variable_7', ',', '', 'variable_11', 'variable_13', 'variable_5', 'variable_13', '-', '&gt;', 'variable_11', 'variable_6', 'variable_9', 'variable_4', '-', '&gt;', 'variable_11', 'variable_13', 'variable_5', 'variable_13', '[', '0', ']', ')', ';', '', '', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_25', 'variable_26', 'variable_7', 'variable_27', 'variable_6', 'variable_2', 'variable_28', 'variable_4', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', '', '=', '', '-', '1', ';', '', '', '', 'variable_29', 'variable_2', 'variable_26', '', '(', 'variable_6', 'variable_3', 'variable_5', '', 'variable_6', '', '=', '', '0', ';', '', 'variable_6', '', '&lt;', '', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', 'variable_10', 'variable_4', 'variable_6', 'variable_12', 'variable_7', ';', '', 'variable_6', '+', '+', ')', '', '{', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_0', 'variable_28', 'variable_26', 'variable_26', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', '', '=', '', 'variable_30', 'variable_7', 'variable_5', 'variable_14', 'variable_7', 'variable_3', 'variable_4', 'variable_2', 'variable_26', 'variable_31', 'variable_13', 'variable_5', 'variable_13', '&lt;', 'variable_6', 'variable_3', 'variable_5', '3', '2', 'variable_10', 'variable_5', '&gt;', '(', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', 'variable_4', ')', '[', 'variable_6', ']', ';', '', '', '', 'variable_6', 'variable_29', '', '(', 'variable_6', '', '=', '=', '', '0', ')', '', '{', '', '', '', '', 'variable_14', 'variable_15', 'variable_10', 'variable_16', 'variable_17', 'variable_14', 'variable_18', 'variable_10', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_22', 'variable_18', 'variable_10', 'variable_18', 'variable_23', '(', 'variable_0', 'variable_2', 'variable_3', 'variable_5', 'variable_7', 'variable_24', 'variable_5', ',', '', 'variable_0', 'variable_28', 'variable_26', 'variable_26', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', ',', '', '0', ')', ';', '', '', '', '}', '', 'variable_7', 'variable_32', 'variable_4', 'variable_7', '', '{', '', '', '', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_11', 'variable_7', 'variable_32', 'variable_5', 'variable_13', '', '=', '', 'variable_0', 'variable_28', 'variable_26', 'variable_26', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', '', '-', '', 'variable_25', 'variable_26', 'variable_7', 'variable_27', 'variable_6', 'variable_2', 'variable_28', 'variable_4', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', ';', '', '', '', '', 'variable_14', 'variable_15', 'variable_10', 'variable_16', 'variable_17', 'variable_14', 'variable_18', 'variable_10', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_22', 'variable_18', '(', 'variable_0', 'variable_2', 'variable_3', 'variable_5', 'variable_7', 'variable_24', 'variable_5', ',', '', 'variable_11', 'variable_7', 'variable_32', 'variable_5', 'variable_13', '', '=', '=', '', '0', '', '|', '|', '', 'variable_11', 'variable_7', 'variable_32', 'variable_5', 'variable_13', '', '=', '=', '', '1', ')', ';', '', '', '', '}', '', '', '', 'variable_25', 'variable_26', 'variable_7', 'variable_27', 'variable_6', 'variable_2', 'variable_28', 'variable_4', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', '', '=', '', 'variable_0', 'variable_28', 'variable_26', 'variable_26', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', ';', '', '', '', '}', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_9', 'variable_13', 'variable_24', 'variable_10', 'variable_6', 'variable_3', 'variable_11', 'variable_7', 'variable_24', '', '=', '', 'variable_25', 'variable_26', 'variable_7', 'variable_27', 'variable_6', 'variable_2', 'variable_28', 'variable_4', 'variable_10', 'variable_4', 'variable_7', 'variable_8', 'variable_9', 'variable_7', 'variable_3', 'variable_5', 'variable_10', 'variable_6', 'variable_11', ';', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_11', 'variable_13', 'variable_5', 'variable_13', 'variable_10', 'variable_26', 'variable_13', 'variable_3', 'variable_33', '', '=', '', 'variable_19', 'variable_28', 'variable_9', 'variable_31', 'variable_6', 'variable_9', 'variable_7', 'variable_3', 'variable_4', 'variable_6', 'variable_2', 'variable_3', 'variable_4', '(', 'variable_11', 'variable_13', 'variable_5', 'variable_13', ')', ';', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -812,7 +902,12 @@
     </t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', '', 'variable_5', 'variable_4', 'variable_6', 'variable_4', 'variable_7', 'variable_8', '', '=', '', '[', 'variable_9', 'variable_0', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_9', 'variable_14', 'variable_11', 'variable_13', 'variable_7', 'variable_14', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', ',', '', 'variable_16', 'variable_2', 'variable_10', 'variable_14', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', 'variable_9', ',', '', '&amp;', 'variable_7', 'variable_16', 'variable_17', ',', '', 'variable_9', 'variable_0', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_9', 'variable_14', 'variable_18', 'variable_12', 'variable_0', 'variable_3', ',', '', '', '', '', '', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', 'variable_14', 'variable_18', 'variable_12', 'variable_0', 'variable_3', ']', '(', 'variable_19', 'variable_16', 'variable_3', '', 'variable_9', 'variable_3', 'variable_0', 'variable_7', 'variable_3', 'variable_14', 'variable_4', 'variable_2', 'variable_3', 'variable_11', 'variable_2', 'variable_3', ',', '', 'variable_19', 'variable_16', 'variable_3', '', 'variable_12', 'variable_19', 'variable_10', 'variable_19', 'variable_3', 'variable_14', 'variable_4', 'variable_2', 'variable_3', 'variable_11', 'variable_2', 'variable_3', ')', '', '{', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -827,7 +922,12 @@
 	</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', '', 'variable_5', 'variable_4', 'variable_6', 'variable_4', 'variable_7', 'variable_8', '', '=', '', '[', 'variable_9', 'variable_0', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_9', 'variable_14', 'variable_11', 'variable_13', 'variable_7', 'variable_14', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', ',', '', 'variable_16', 'variable_2', 'variable_10', 'variable_14', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', 'variable_9', ',', '', '&amp;', 'variable_7', 'variable_16', 'variable_17', ',', '', 'variable_9', 'variable_0', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_9', 'variable_14', 'variable_18', 'variable_12', 'variable_0', 'variable_3', ',', '', '', '', '', 'variable_0', 'variable_12', 'variable_11', 'variable_15', 'variable_0', 'variable_14', 'variable_18', 'variable_12', 'variable_0', 'variable_3', ']', '(', 'variable_19', 'variable_16', 'variable_3', '6', '4', '', 'variable_9', 'variable_3', 'variable_0', 'variable_7', 'variable_3', 'variable_14', 'variable_4', 'variable_2', 'variable_3', 'variable_11', 'variable_2', 'variable_3', ',', '', 'variable_19', 'variable_16', 'variable_3', '6', '4', '', 'variable_12', 'variable_19', 'variable_10', 'variable_19', 'variable_3', 'variable_14', 'variable_4', 'variable_2', 'variable_3', 'variable_11', 'variable_2', 'variable_3', ')', '', '{', '', '']</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -845,7 +945,12 @@
 	",	</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', '', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_6', '-', '&gt;', 'variable_6', 'variable_7', 'variable_5', 'variable_9', 'variable_4', 'variable_10', 'variable_9', '', '!', '=', '', 'variable_5', 'variable_11', 'variable_12', 'variable_12', 'variable_13', 'variable_6', 'variable_10', ')', '', '{', '', '', '', '', 'variable_10', 'variable_7', 'variable_6', 'variable_11', 'variable_10', 'variable_5', '', '&amp;', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_6', '-', '&gt;', 'variable_6', 'variable_7', 'variable_5', 'variable_9', 'variable_4', 'variable_10', 'variable_9', '[', 'variable_5', 'variable_4', 'variable_14', 'variable_7', '-', '&gt;', 'variable_4', 'variable_11', 'variable_6', 'variable_13', 'variable_11', 'variable_6', 'variable_9', '-', '&gt;', 'variable_14', 'variable_15', 'variable_6', 'variable_15', '[', 'variable_0', 'variable_5', 'variable_14', 'variable_7', 'variable_8', ']', ']', ';', '', '', '', '', '', '}', '', 'variable_7', 'variable_12', 'variable_9', 'variable_7', '', '{', '', '', '', '', 'variable_10', 'variable_7', 'variable_6', 'variable_11', 'variable_10', 'variable_5', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_6', '-', '&gt;', 'variable_16', 'variable_7', 'variable_6', 'variable_17', 'variable_7', 'variable_5', 'variable_9', 'variable_4', 'variable_10', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_6', ',', '', 'variable_5', 'variable_4', 'variable_14', 'variable_7', '-', '&gt;', 'variable_4', 'variable_11', 'variable_6', 'variable_13', 'variable_11', 'variable_6', 'variable_9', '-', '&gt;', 'variable_14', 'variable_15', 'variable_6', 'variable_15', '[', 'variable_0', 'variable_5', 'variable_14', 'variable_7', 'variable_8', ']', ')', ';', '', '', '', '', '', '}', '', '', '"', ',', '']</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,7 +977,12 @@
 	</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_0', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '*', '', 'variable_11', 'variable_6', 'variable_5', 'variable_12', 'variable_13', 'variable_5', 'variable_14', 'variable_13', 'variable_5', '(', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_15', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', '*', '', 'variable_17', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', ',', '', 'variable_17', 'variable_9', 'variable_7', 'variable_8', 'variable_5', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_18', 'variable_9', 'variable_19', 'variable_6', '*', '', 'variable_7', 'variable_9', 'variable_19', 'variable_6', ',', '', '', '', '', 'variable_4', 'variable_7', 'variable_5', '', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', ')', '', '{', '', '', '', '', 'variable_4', 'variable_2', '', '(', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', '', '&gt;', '=', '', '0', '', '&amp;', '&amp;', '', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', '', '&lt;', '', 'variable_7', 'variable_9', 'variable_19', 'variable_6', '-', '&gt;', 'variable_9', 'variable_13', 'variable_5', 'variable_14', 'variable_13', 'variable_5', 'variable_8', '-', '&gt;', 'variable_8', 'variable_4', 'variable_20', 'variable_6', ')', '', '{', '', '', '', '', '', 'variable_17', 'variable_9', 'variable_7', 'variable_8', 'variable_5', '', 'variable_4', 'variable_7', 'variable_5', '', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_21', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', '', '=', '', 'variable_7', 'variable_9', 'variable_19', 'variable_6', '-', '&gt;', 'variable_9', 'variable_13', 'variable_5', 'variable_14', 'variable_13', 'variable_5', 'variable_8', '-', '&gt;', 'variable_19', 'variable_22', 'variable_5', 'variable_22', '[', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', ']', ';', '', '', '', '', '', 'variable_4', 'variable_2', '', '(', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_21', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', '', '!', '=', '', 'variable_23', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_12', 'variable_14', 'variable_5', 'variable_4', 'variable_9', 'variable_7', 'variable_22', 'variable_24', 'variable_0', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', ')', '', '{', '', '', '', '', '', '', 'variable_4', 'variable_2', '', '(', 'variable_17', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', '-', '&gt;', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_8', '', '!', '=', '', 'variable_7', 'variable_13', 'variable_24', 'variable_24', 'variable_14', 'variable_5', 'variable_10', ')', '', '{', '', '', '', '', '', '', '', 'variable_10', 'variable_6', 'variable_5', 'variable_13', 'variable_10', 'variable_7', '', '&amp;', 'variable_17', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', '-', '&gt;', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_8', '[', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_21', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', ']', ';', '', '', '', '', '', '', '}', '', 'variable_6', 'variable_24', 'variable_8', 'variable_6', '', '{', '', '', '', '', '', '', '', 'variable_10', 'variable_6', 'variable_5', 'variable_13', 'variable_10', 'variable_7', '', 'variable_17', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', '-', '&gt;', 'variable_11', 'variable_6', 'variable_5', 'variable_0', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '(', 'variable_17', 'variable_9', 'variable_7', 'variable_5', 'variable_6', 'variable_16', 'variable_5', ',', '', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_21', 'variable_4', 'variable_7', 'variable_19', 'variable_6', 'variable_16', ')', ';', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '}', '', '', '', '', '', '}', '', '', '', '', '', 'variable_10', 'variable_6', 'variable_5', 'variable_13', 'variable_10', 'variable_7', '', 'variable_7', 'variable_13', 'variable_24', 'variable_24', 'variable_14', 'variable_5', 'variable_10', ';', '', '', '', '', '}', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,7 +999,12 @@
     </t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', '', '(', 'variable_4', 'variable_5', 'variable_6', '', 'variable_4', 'variable_7', 'variable_8', '', '=', '', '0', ';', '', 'variable_4', 'variable_7', 'variable_8', '', '&lt;', '', 'variable_5', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', ';', '', '+', '+', 'variable_4', 'variable_7', 'variable_8', ')', '', '{', '', '', '', '', 'variable_17', 'variable_18', 'variable_4', 'variable_14', 'variable_15', '', '(', 'variable_4', 'variable_7', 'variable_8', '', '&gt;', '=', '', 'variable_16', 'variable_19', 'variable_14', 'variable_4', 'variable_6', 'variable_16', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_9', 'variable_15', 'variable_16', '(', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', ')', ')', '', '{', '', '', '', '', '', 'variable_20', 'variable_13', 'variable_6', 'variable_21', 'variable_18', 'variable_11', 'variable_4', 'variable_7', 'variable_8', '+', '+', ';', '', '', '', '', '}', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,7 +1035,12 @@
 	</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_14', 'variable_21', '', '&gt;', '', '0', ',', '', '', '', '', 'variable_14', 'variable_22', 'variable_22', 'variable_11', 'variable_22', 'variable_21', ':', ':', 'variable_8', 'variable_12', 'variable_23', 'variable_19', 'variable_24', 'variable_25', 'variable_26', 'variable_27', 'variable_22', 'variable_28', 'variable_16', 'variable_17', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '"', 'variable_29', 'variable_16', 'variable_21', 'variable_13', '', 'variable_30', 'variable_22', 'variable_11', 'variable_23', 'variable_25', 'variable_26', 'variable_14', '', 'variable_19', 'variable_13', '', 'variable_24', 'variable_14', 'variable_19', 'variable_21', 'variable_13', '', '2', '', 'variable_14', 'variable_24', 'variable_14', 'variable_17', 'variable_14', 'variable_12', 'variable_13', 'variable_21', '', 'variable_31', 'variable_11', 'variable_22', '', 'variable_13', 'variable_20', 'variable_14', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', '', 'variable_19', 'variable_22', 'variable_28', 'variable_16', 'variable_17', 'variable_14', 'variable_12', 'variable_13', '"', ')', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', '(', '0', ')', '', '=', '=', '', '0', ',', '', '', '', '', '', '', 'variable_14', 'variable_22', 'variable_22', 'variable_11', 'variable_22', 'variable_21', ':', ':', 'variable_8', 'variable_12', 'variable_23', 'variable_19', 'variable_24', 'variable_25', 'variable_26', 'variable_27', 'variable_22', 'variable_28', 'variable_16', 'variable_17', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_9', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', '', 'variable_17', 'variable_16', 'variable_21', 'variable_13', '', 'variable_21', 'variable_13', 'variable_19', 'variable_22', 'variable_13', '', 'variable_32', 'variable_25', 'variable_13', 'variable_20', '', '0', ',', '', 'variable_12', 'variable_11', 'variable_13', '', 'variable_32', 'variable_25', 'variable_13', 'variable_20', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', '(', '0', ')', ')', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', '(', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_14', 'variable_21', ')', '', '=', '=', '', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', ',', '', '', '', '', '', '', 'variable_14', 'variable_22', 'variable_22', 'variable_11', 'variable_22', 'variable_21', ':', ':', 'variable_8', 'variable_12', 'variable_23', 'variable_19', 'variable_24', 'variable_25', 'variable_26', 'variable_27', 'variable_22', 'variable_28', 'variable_16', 'variable_17', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '', '"', 'variable_9', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', '', 'variable_17', 'variable_16', 'variable_21', 'variable_13', '', 'variable_14', 'variable_12', 'variable_26', '', 'variable_32', 'variable_25', 'variable_13', 'variable_20', '', 'variable_13', 'variable_20', 'variable_14', '', 'variable_12', 'variable_16', 'variable_17', 'variable_18', 'variable_14', 'variable_22', '', 'variable_11', 'variable_31', '', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', ',', '', 'variable_28', 'variable_11', 'variable_13', '', '"', ',', '', '', '', '', '', '', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', '(', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_14', 'variable_21', ')', ',', '', '"', '', 'variable_25', 'variable_12', 'variable_21', 'variable_13', 'variable_14', 'variable_19', 'variable_26', '', 'variable_11', 'variable_31', '', '"', ',', '', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', ')', ')', ';', '', '', '', '', 'variable_19', 'variable_16', 'variable_13', 'variable_11', '', 'variable_30', 'variable_14', 'variable_22', 'variable_3', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_3', 'variable_10', 'variable_11', 'variable_16', 'variable_12', 'variable_13', 'variable_21', '', '=', '', 'variable_33', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_14', 'variable_26', 'variable_29', 'variable_19', 'variable_30', '&lt;', 'variable_34', '&gt;', '(', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_14', 'variable_21', ')', ';', '', '', '', 'variable_35', '', 'variable_17', 'variable_19', 'variable_15', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', '', '=', '', '0', ';', '', '', '', 'variable_25', 'variable_12', 'variable_13', '', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_3', 'variable_25', 'variable_26', 'variable_15', '', '=', '', '0', ';', '', '', '', '', 'variable_31', 'variable_11', 'variable_22', '', '(', 'variable_25', 'variable_12', 'variable_13', '', 'variable_25', 'variable_26', 'variable_15', '', '=', '', '0', ';', '', 'variable_25', 'variable_26', 'variable_15', '', '&lt;', '', 'variable_12', 'variable_16', 'variable_17', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', ';', '', '+', '+', 'variable_25', 'variable_26', 'variable_15', ')', '', '{', '', '', '', 'variable_32', 'variable_20', 'variable_25', 'variable_24', 'variable_14', '', '(', 'variable_25', 'variable_26', 'variable_15', '', '&gt;', '=', '', 'variable_21', 'variable_30', 'variable_24', 'variable_25', 'variable_13', 'variable_21', 'variable_3', 'variable_23', 'variable_19', 'variable_24', 'variable_16', 'variable_14', 'variable_21', '(', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_3', 'variable_25', 'variable_26', 'variable_15', ')', ')', '', '{', '', '', '', '', 'variable_18', 'variable_19', 'variable_13', 'variable_10', 'variable_20', 'variable_3', 'variable_25', 'variable_26', 'variable_15', '+', '+', ';', '', '', '', '}', '', '']</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,7 +1060,12 @@
     </t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', '', '=', '', '"', '%', '"', ';', '', '', '', '', 'variable_8', 'variable_0', '', '(', 'variable_9', 'variable_8', 'variable_10', 'variable_6', 'variable_11', '', '&gt;', '', '-', '1', ')', '', '{', '', '', '', '', 'variable_12', 'variable_6', 'variable_3', 'variable_8', 'variable_13', 'variable_14', 'variable_12', ':', ':', 'variable_15', 'variable_16', 'variable_16', 'variable_17', 'variable_13', 'variable_10', 'variable_0', '(', '&amp;', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ',', '', '"', '%', 'variable_12', '%', 'variable_10', '"', ',', '', 'variable_0', 'variable_8', 'variable_18', 'variable_18', 'variable_7', 'variable_12', 'variable_6', 'variable_3', 'variable_8', 'variable_13', 'variable_14', '.', 'variable_19', 'variable_7', 'variable_12', 'variable_6', 'variable_3', '(', ')', ',', '', 'variable_9', 'variable_8', 'variable_10', 'variable_6', 'variable_11', ')', ';', '', '', '', '', '}', '', '', '', '', 'variable_8', 'variable_0', '', '(', 'variable_16', 'variable_3', 'variable_17', 'variable_19', 'variable_8', 'variable_12', 'variable_8', 'variable_2', 'variable_13', '', '&gt;', '', '-', '1', ')', '', '{', '', '', '', '', 'variable_12', 'variable_6', 'variable_3', 'variable_8', 'variable_13', 'variable_14', 'variable_12', ':', ':', 'variable_15', 'variable_16', 'variable_16', 'variable_17', 'variable_13', 'variable_10', 'variable_0', '(', '&amp;', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ',', '', '"', '.', '%', 'variable_10', '"', ',', '', 'variable_16', 'variable_3', 'variable_17', 'variable_19', 'variable_8', 'variable_12', 'variable_8', 'variable_2', 'variable_13', ')', ';', '', '', '', '', '}', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -975,7 +1100,12 @@
 	</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', '', '=', '', '"', '%', '"', ';', '', '', '', 'variable_8', 'variable_0', '', '(', '!', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', '.', 'variable_13', 'variable_4', 'variable_14', 'variable_6', 'variable_15', '(', ')', ')', '', '{', '', '', '', 'variable_10', 'variable_16', 'variable_8', 'variable_6', 'variable_17', 'variable_18', '', '(', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', '[', '0', ']', ')', '', '{', '', '', '', '', 'variable_17', 'variable_5', 'variable_10', 'variable_13', '', "'", '', "'", ':', '', '', '', '', 'variable_17', 'variable_5', 'variable_10', 'variable_13', '', "'", '+', "'", ':', '', '', '', '', 'variable_17', 'variable_5', 'variable_10', 'variable_13', '', "'", '-', "'", ':', '', '', '', '', 'variable_17', 'variable_5', 'variable_10', 'variable_13', '', "'", '0', "'", ':', '', '', '', '', 'variable_17', 'variable_5', 'variable_10', 'variable_13', '', "'", '#', "'", ':', '', '', '', '', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', 'variable_10', ':', ':', 'variable_19', 'variable_14', 'variable_14', 'variable_13', 'variable_11', 'variable_20', 'variable_0', '(', '&amp;', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ',', '', '"', '%', 'variable_10', '"', ',', '', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', '.', 'variable_17', 'variable_7', 'variable_10', 'variable_6', 'variable_3', '(', ')', ')', ';', '', '', '', '', 'variable_21', 'variable_3', 'variable_13', 'variable_5', 'variable_22', ';', '', '', '', '', 'variable_20', 'variable_13', 'variable_0', 'variable_5', 'variable_23', 'variable_9', 'variable_6', ':', '', '', '', '', 'variable_21', 'variable_2', 'variable_2', 'variable_9', '', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_11', 'variable_2', 'variable_6', 'variable_7', 'variable_10', 'variable_23', 'variable_14', 'variable_14', 'variable_2', 'variable_3', 'variable_6', 'variable_13', 'variable_20', '', '=', '', 'variable_6', 'variable_3', 'variable_23', 'variable_13', ';', '', '', '', '', 'variable_24', 'variable_25', 'variable_7', 'variable_26', 'variable_27', 'variable_28', 'variable_29', 'variable_30', 'variable_26', 'variable_27', 'variable_31', '(', 'variable_17', 'variable_6', 'variable_32', ',', '', '!', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_11', 'variable_2', 'variable_6', 'variable_7', 'variable_10', 'variable_23', 'variable_14', 'variable_14', 'variable_2', 'variable_3', 'variable_6', 'variable_13', 'variable_20', ',', '', '', '', '', '', '', '', 'variable_13', 'variable_3', 'variable_3', 'variable_2', 'variable_3', 'variable_10', ':', ':', 'variable_30', 'variable_11', 'variable_33', 'variable_5', 'variable_9', 'variable_8', 'variable_20', 'variable_19', 'variable_3', 'variable_12', 'variable_23', 'variable_4', 'variable_13', 'variable_11', 'variable_6', '(', '"', 'variable_34', 'variable_8', 'variable_9', 'variable_9', '', 'variable_5', 'variable_3', 'variable_12', 'variable_23', 'variable_4', 'variable_13', 'variable_11', 'variable_6', '', 'variable_11', 'variable_2', 'variable_6', '', 'variable_10', 'variable_23', 'variable_14', 'variable_14', 'variable_2', 'variable_3', 'variable_6', 'variable_13', 'variable_20', ':', '', '\\', '"', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_0', 'variable_8', 'variable_9', 'variable_9', 'variable_7', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', ',', '', '"', '\\', '"', '"', ')', ')', ';', '', '', '', '}', '', '', '', '}', '', '', '', 'variable_8', 'variable_0', '', '(', 'variable_16', 'variable_8', 'variable_20', 'variable_6', 'variable_18', '', '&gt;', '', '-', '1', ')', '', '{', '', '', '', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', 'variable_10', ':', ':', 'variable_19', 'variable_14', 'variable_14', 'variable_13', 'variable_11', 'variable_20', 'variable_0', '(', '&amp;', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ',', '', '"', '%', 'variable_20', '"', ',', '', 'variable_16', 'variable_8', 'variable_20', 'variable_6', 'variable_18', ')', ';', '', '', '', '}', '', '', '', 'variable_8', 'variable_0', '', '(', 'variable_14', 'variable_3', 'variable_13', 'variable_17', 'variable_8', 'variable_10', 'variable_8', 'variable_2', 'variable_11', '', '&gt;', '', '-', '1', ')', '', '{', '', '', '', 'variable_10', 'variable_6', 'variable_3', 'variable_8', 'variable_11', 'variable_12', 'variable_10', ':', ':', 'variable_19', 'variable_14', 'variable_14', 'variable_13', 'variable_11', 'variable_20', 'variable_0', '(', '&amp;', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ',', '', '"', '.', '%', 'variable_20', '"', ',', '', 'variable_14', 'variable_3', 'variable_13', 'variable_17', 'variable_8', 'variable_10', 'variable_8', 'variable_2', 'variable_11', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,7 +1123,12 @@
     </t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['', '', '/', '/', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', '', 'variable_3', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_9', 'variable_10', 'variable_6', '', 'variable_9', 'variable_3', 'variable_4', 'variable_6', 'variable_11', '.', '', 'variable_12', '', 'variable_13', 'variable_14', 'variable_15', 'variable_9', 'variable_8', 'variable_9', 'variable_10', 'variable_6', '', 'variable_9', 'variable_3', 'variable_4', 'variable_6', 'variable_11', '', "'", 'variable_13', 'variable_16', 'variable_9', 'variable_4', 'variable_11', "'", '', 'variable_17', 'variable_2', 'variable_3', '', 'variable_18', 'variable_6', '', 'variable_19', 'variable_6', 'variable_13', 'variable_19', 'variable_6', 'variable_15', 'variable_6', 'variable_3', 'variable_8', 'variable_6', 'variable_4', '', 'variable_2', 'variable_15', '', 'variable_2', '', '', '', '', '/', '/', '', 'variable_3', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_9', 'variable_10', 'variable_6', '', 'variable_9', 'variable_3', 'variable_4', 'variable_6', 'variable_11', '', "'", 'variable_3', 'variable_16', 'variable_9', 'variable_4', 'variable_11', "'", '', 'variable_2', 'variable_15', ':', '', 'variable_3', 'variable_16', 'variable_9', 'variable_4', 'variable_11', '', '=', '', 'variable_13', 'variable_16', 'variable_9', 'variable_4', 'variable_11', '-', 'variable_3', 'variable_20', 'variable_21', 'variable_16', 'variable_4', 'variable_9', 'variable_21', 'variable_15', '', '', '', '', '/', '/', '', 'variable_6', 'variable_7', ':', '', 'variable_22', 'variable_14', 'variable_19', '', 'variable_3', 'variable_20', 'variable_21', 'variable_16', 'variable_4', 'variable_9', 'variable_21', 'variable_15', '=', '3', ',', '', '[', '0', ',', '', '1', ',', '', '2', ']', '', 'variable_9', 'variable_15', '', 'variable_8', 'variable_23', 'variable_6', '', 'variable_15', 'variable_2', 'variable_21', 'variable_6', '', 'variable_2', 'variable_15', '', '[', '-', '3', ',', '', '-', '2', ',', '', '-', '1', ']', '', '', '*', '/', '', '', '', '', 'variable_9', 'variable_3', 'variable_8', '', 'variable_17', 'variable_20', 'variable_19', 'variable_19', 'variable_6', 'variable_3', 'variable_8', '', '=', '', 'variable_2', 'variable_11', 'variable_9', 'variable_15', '[', 'variable_9', 'variable_4', 'variable_11', ']', '', '&lt;', '', '0', '', '?', '', '(', 'variable_2', 'variable_11', 'variable_9', 'variable_15', '[', 'variable_9', 'variable_4', 'variable_11', ']', '', '+', '', 'variable_3', 'variable_20', 'variable_21', 'variable_16', 'variable_4', 'variable_9', 'variable_21', 'variable_15', ')', '', ':', '', 'variable_2', 'variable_11', 'variable_9', 'variable_15', '[', 'variable_9', 'variable_4', 'variable_11', ']', ';', '', '', '', '', 'variable_24', 'variable_22', 'variable_25', 'variable_26', 'variable_24', 'variable_27', 'variable_16', 'variable_28', 'variable_29', 'variable_0', 'variable_27', 'variable_29', 'variable_30', '(', 'variable_17', 'variable_20', 'variable_19', 'variable_19', 'variable_6', 'variable_3', 'variable_8', '', '&gt;', '=', '', '0', '', '&amp;', '&amp;', '', 'variable_17', 'variable_20', 'variable_19', 'variable_19', 'variable_6', 'variable_3', 'variable_8', '', '&lt;', '', 'variable_3', 'variable_20', 'variable_21', 'variable_16', 'variable_4', 'variable_9', 'variable_21', 'variable_15', ')', ';', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,7 +1146,12 @@
 	</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', '', 'variable_4', 'variable_5', 'variable_6', 'variable_6', 'variable_7', 'variable_2', 'variable_3', '', '=', '', 'variable_8', 'variable_9', 'variable_0', 'variable_10', '[', 'variable_0', 'variable_11', 'variable_9', ']', '', '&lt;', '', '0', '', '?', '', '(', 'variable_8', 'variable_9', 'variable_0', 'variable_10', '[', 'variable_0', 'variable_11', 'variable_9', ']', '', '+', '', 'variable_2', 'variable_5', 'variable_12', 'variable_13', 'variable_11', 'variable_0', 'variable_12', 'variable_10', ')', '', ':', '', 'variable_8', 'variable_9', 'variable_0', 'variable_10', '[', 'variable_0', 'variable_11', 'variable_9', ']', ';', '', '', '', 'variable_14', 'variable_15', 'variable_16', 'variable_17', 'variable_14', 'variable_18', 'variable_13', 'variable_19', 'variable_20', 'variable_21', 'variable_18', 'variable_20', 'variable_22', '(', 'variable_4', 'variable_5', 'variable_6', 'variable_6', 'variable_7', 'variable_2', 'variable_3', '', '&gt;', '=', '', '0', '', '&amp;', '&amp;', '', 'variable_4', 'variable_5', 'variable_6', 'variable_6', 'variable_7', 'variable_2', 'variable_3', '', '&lt;', '', 'variable_2', 'variable_5', 'variable_12', 'variable_13', 'variable_11', 'variable_0', 'variable_12', 'variable_10', ')', ';', '', '', '', 'variable_0', 'variable_23', '', '(', 'variable_4', 'variable_5', 'variable_6', 'variable_6', 'variable_7', 'variable_2', 'variable_3', '', '&lt;', '', '0', '', '|', '|', '', 'variable_4', 'variable_5', 'variable_6', 'variable_6', 'variable_7', 'variable_2', 'variable_3', '', '&gt;', '=', '', 'variable_2', 'variable_5', 'variable_12', 'variable_13', 'variable_11', 'variable_0', 'variable_12', 'variable_10', ')', '', '{', '', '', '', 'variable_6', 'variable_7', 'variable_3', 'variable_5', 'variable_6', 'variable_2', '', 'variable_23', 'variable_8', 'variable_24', 'variable_10', 'variable_7', ';', '', '', '', '}', '', '']</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1165,12 @@
     </t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_7', 'variable_5', 'variable_2', '', 'variable_8', 'variable_3', 'variable_9', 'variable_8', 'variable_0', 'variable_10', 'variable_4', 'variable_11', 'variable_12', 'variable_6', 'variable_13', 'variable_7', 'variable_10', 'variable_4', '', '=', '', 'variable_8', 'variable_3', 'variable_9', 'variable_8', 'variable_0', 'variable_10', 'variable_4', '.', 'variable_14', 'variable_6', 'variable_5', 'variable_15', 'variable_8', 'variable_16', '&lt;', 'variable_8', 'variable_3', 'variable_5', '6', '4', '&gt;', '(', ')', ';', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,7 +1204,12 @@
 	</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_20', 'variable_13', 'variable_18', 'variable_22', 'variable_15', '(', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '"', 'variable_8', 'variable_12', 'variable_21', 'variable_29', 'variable_13', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', '2', '-', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', 'variable_20', 'variable_23', '', 'variable_13', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', '.', '', 'variable_32', 'variable_11', 'variable_13', ':', '', '"', ',', '', '', '', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '', 'variable_22', 'variable_34', '', '(', 'variable_29', 'variable_17', 'variable_14', 'variable_3', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', ')', '', '{', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '', '=', '=', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '"', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '', 'variable_20', 'variable_12', 'variable_25', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_19', 'variable_20', 'variable_26', 'variable_14', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_17', 'variable_20', 'variable_30', 'variable_14', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', '', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', '', '', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ',', '', '', '', '', '"', ';', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '}', '', '', '', '', '', 'variable_31', 'variable_11', 'variable_11', 'variable_23', '', 'variable_22', 'variable_17', 'variable_3', '1', 'variable_25', '', '=', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', 'variable_37', 'variable_29', 'variable_30', 'variable_5', 'variable_23', 'variable_14', 'variable_30', 'variable_14', 'variable_12', 'variable_13', 'variable_17', '(', ')', '', '=', '=', '', '1', ';', '', '', '', '', 'variable_22', 'variable_12', 'variable_13', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_31', 'variable_20', 'variable_13', 'variable_10', 'variable_19', 'variable_14', 'variable_17', '', '=', '', 'variable_22', 'variable_17', 'variable_3', '1', 'variable_25', '', '?', '', '1', '', ':', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', 'variable_34', 'variable_23', 'variable_20', 'variable_13', '&lt;', 'variable_22', 'variable_12', 'variable_13', '6', '4', '&gt;', '(', ')', '(', '0', ')', ';', '', '', '', '', 'variable_22', 'variable_12', 'variable_13', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', '=', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_37', 'variable_29', 'variable_30', 'variable_5', 'variable_23', 'variable_14', 'variable_30', 'variable_14', 'variable_12', 'variable_13', 'variable_17', '(', ')', ';', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', '=', '=', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_25', 'variable_22', 'variable_30', 'variable_3', 'variable_17', 'variable_22', 'variable_38', 'variable_14', '(', '0', ')', ',', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '"', 'variable_37', 'variable_29', 'variable_30', 'variable_31', 'variable_14', 'variable_18', '', 'variable_11', 'variable_34', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_30', 'variable_20', 'variable_13', 'variable_10', 'variable_19', '', 'variable_34', 'variable_22', 'variable_18', 'variable_17', 'variable_13', '', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', '', 'variable_11', 'variable_34', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', '"', ',', '', '', '', '', '', '', '"', 'variable_32', 'variable_11', 'variable_13', '', '"', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', '', '', '', '', '', '"', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_17', 'variable_13', '', 'variable_20', 'variable_29', 'variable_13', 'variable_11', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', '=', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_30', 'variable_20', 'variable_13', 'variable_18', 'variable_22', 'variable_15', '&lt;', 'variable_22', 'variable_12', 'variable_13', '6', '4', '&gt;', '(', ')', ';', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1235,12 @@
     </t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', '', 'variable_5', 'variable_0', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_8', 'variable_9', 'variable_11', 'variable_9', 'variable_8', '', '=', '', '[', 'variable_12', 'variable_13', ',', '', '&amp;', 'variable_14', 'variable_9', 'variable_13', 'variable_2', 'variable_8', 'variable_3', 'variable_13', ',', '', '&amp;', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_16', ',', '', '&amp;', 'variable_6', 'variable_9', 'variable_17', 'variable_3', 'variable_10', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_16', ',', '', '&amp;', 'variable_6', 'variable_9', 'variable_18', 'variable_10', 'variable_14', 'variable_9', 'variable_3', 'variable_13', ',', '', '', '', '', '', '', '', '', '&amp;', 'variable_15', 'variable_13', 'variable_10', 'variable_7', 'variable_15', 'variable_14', 'variable_9', 'variable_19', 'variable_3', 'variable_4', 'variable_14', 'variable_20', ',', '', '&amp;', 'variable_7', 'variable_15', 'variable_14', 'variable_13', ',', '', '&amp;', 'variable_14', 'variable_9', 'variable_13', 'variable_2', 'variable_8', 'variable_3', 'variable_13', 'variable_10', 'variable_21', 'variable_2', 'variable_3', 'variable_9', 'variable_17', ',', '', '&amp;', 'variable_14', 'variable_9', 'variable_13', 'variable_2', 'variable_8', 'variable_3', 'variable_13', 'variable_10', 'variable_19', 'variable_4', 'variable_6', 'variable_7', ',', '', '', '', '', '', '', '', '', '&amp;', 'variable_6', 'variable_9', 'variable_17', 'variable_3', 'variable_10', 'variable_16', 'variable_2', 'variable_9', 'variable_10', 'variable_21', 'variable_2', 'variable_3', 'variable_9', 'variable_17', ',', '', '&amp;', 'variable_6', 'variable_9', 'variable_17', 'variable_3', 'variable_10', 'variable_16', 'variable_2', 'variable_9', 'variable_10', 'variable_19', 'variable_4', 'variable_6', 'variable_7', ']', '(', 'variable_15', 'variable_6', 'variable_3', '', 'variable_15', ')', '', '{', '', '', '', '', 'variable_13', 'variable_3', 'variable_14', 'variable_15', 'variable_6', 'variable_22', '', 'variable_19', 'variable_2', 'variable_14', 'variable_14', 'variable_9', 'variable_6', 'variable_3', 'variable_10', 'variable_7', 'variable_15', 'variable_14', '', '=', '', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_16', '.', 'variable_0', 'variable_3', '(', 'variable_15', ')', '.', 'variable_12', 'variable_15', 'variable_14', 'variable_13', 'variable_3', ';', '', '', '', '', 'variable_15', 'variable_6', 'variable_3', '', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_15', 'variable_6', 'variable_7', 'variable_9', 'variable_17', '', '=', '', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_16', '.', 'variable_0', 'variable_3', '(', 'variable_15', ')', '.', 'variable_13', 'variable_9', 'variable_19', 'variable_4', 'variable_6', 'variable_7', ';', '', '', '', '', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_15', 'variable_6', 'variable_7', 'variable_9', 'variable_17', '+', '+', ';', '', '', '', '', 'variable_13', 'variable_3', 'variable_7', ':', ':', 'variable_11', 'variable_9', 'variable_19', 'variable_3', 'variable_4', 'variable_14', '&lt;', 'variable_13', 'variable_3', 'variable_14', 'variable_15', 'variable_6', 'variable_22', '&gt;', '', 'variable_19', 'variable_5', 'variable_15', 'variable_8', 'variable_7', 'variable_14', 'variable_9', 'variable_6', ';', '', '', '', '', 'variable_23', 'variable_3', 'variable_0', 'variable_3', 'variable_2', 'variable_13', '', 'variable_13', '', '=', '', 'variable_12', 'variable_13', '-', '&gt;', 'variable_24', 'variable_9', 'variable_3', 'variable_25', 'variable_5', 'variable_15', 'variable_8', 'variable_7', 'variable_14', 'variable_9', 'variable_6', '(', 'variable_19', 'variable_2', 'variable_14', 'variable_14', 'variable_9', 'variable_6', 'variable_3', 'variable_10', 'variable_7', 'variable_15', 'variable_14', ',', '', '&amp;', 'variable_19', 'variable_5', 'variable_15', 'variable_8', 'variable_7', 'variable_14', 'variable_9', 'variable_6', ')', ';', '', '', '', '', '/', '/', '', 'variable_26', 'variable_6', '', 'variable_19', 'variable_0', 'variable_13', 'variable_9', '', 'variable_27', 'variable_28', 'variable_29', 'variable_30', 'variable_26', 'variable_23', 'variable_23', 'variable_26', 'variable_31', 'variable_32', 'variable_10', 'variable_33', 'variable_28', 'variable_32', 'variable_26', 'variable_28', 'variable_33', '', 'variable_15', 'variable_13', '', 'variable_9', 'variable_6', 'variable_19', 'variable_4', 'variable_2', 'variable_6', 'variable_3', 'variable_9', 'variable_14', 'variable_9', 'variable_7', ',', '', 'variable_18', 'variable_9', '', 'variable_34', 'variable_0', 'variable_15', 'variable_8', '', 'variable_5', 'variable_9', 'variable_14', 'variable_9', '.', '', '', '', '', 'variable_15', 'variable_12', '', '(', 'variable_13', '.', 'variable_19', 'variable_4', 'variable_7', 'variable_9', '(', ')', '', '=', '=', '', 'variable_3', 'variable_9', 'variable_6', 'variable_13', 'variable_4', 'variable_14', 'variable_12', 'variable_8', 'variable_4', 'variable_18', ':', ':', 'variable_9', 'variable_14', 'variable_14', 'variable_4', 'variable_14', ':', ':', 'variable_27', 'variable_28', 'variable_29', 'variable_30', 'variable_26', 'variable_23', 'variable_23', 'variable_26', 'variable_31', 'variable_32', 'variable_10', 'variable_33', 'variable_28', 'variable_32', 'variable_26', 'variable_28', 'variable_33', ')', '', '{', '', '', '', '', '', 'variable_14', 'variable_9', 'variable_3', 'variable_2', 'variable_14', 'variable_6', ';', '', '', '', '}', '', '', '', '', 'variable_15', 'variable_12', '', '(', '!', 'variable_12', 'variable_13', '-', '&gt;', 'variable_30', 'variable_0', 'variable_3', 'variable_19', 'variable_5', '(', 'variable_19', 'variable_5', 'variable_15', 'variable_8', 'variable_7', 'variable_10', 'variable_35', 'variable_0', 'variable_3', 'variable_5', ',', '', 'variable_7', 'variable_15', 'variable_14', 'variable_13', '[', 'variable_7', 'variable_15', 'variable_14', 'variable_10', 'variable_15', 'variable_6', 'variable_7', 'variable_9', 'variable_17', ']', ')', ')', '', '{', '', '.', '.', '.', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,7 +1275,12 @@
 	</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', ':', ':', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', '&lt;', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '&lt;', 'variable_0', 'variable_2', 'variable_10', 'variable_9', 'variable_11', 'variable_12', ',', '', 'variable_9', 'variable_11', 'variable_2', '&gt;', '&gt;', '', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', '&lt;', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_7', 'variable_8', 'variable_9', 'variable_10', '&lt;', 'variable_0', 'variable_2', 'variable_10', 'variable_9', 'variable_11', 'variable_12', ',', '', 'variable_9', 'variable_11', 'variable_2', '&gt;', '&gt;', '', 'variable_11', 'variable_4', 'variable_13', 'variable_2', 'variable_14', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', ';', '', '', '', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '.', 'variable_4', 'variable_15', 'variable_7', 'variable_16', 'variable_8', 'variable_17', 'variable_4', 'variable_14', 'variable_18', 'variable_8', 'variable_17', 'variable_19', '(', 'variable_3', 'variable_9', 'variable_10', 'variable_0', '[', 'variable_15', 'variable_8', 'variable_2', 'variable_17', 'variable_20', 'variable_9', 'variable_11', 'variable_12', 'variable_14', 'variable_9', 'variable_11', 'variable_3', 'variable_4', 'variable_13', '', '-', '', '1', ']', ',', '', 'variable_15', 'variable_8', 'variable_2', 'variable_17', 'variable_20', 'variable_9', 'variable_11', 'variable_12', 'variable_14', 'variable_9', 'variable_11', 'variable_3', 'variable_4', 'variable_13', '', '-', '', '1', ')', ';', '', '', '', '', '', '/', '/', '', 'variable_21', 'variable_3', 'variable_3', 'variable_9', 'variable_11', 'variable_12', '', 'variable_2', 'variable_22', '', '`', 'variable_10', 'variable_4', 'variable_0', 'variable_6', 'variable_16', 'variable_2', '`', '', 'variable_22', 'variable_10', '', '`', 'variable_11', 'variable_4', 'variable_23', 'variable_14', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '`', '', 'variable_11', 'variable_4', 'variable_4', 'variable_3', '', 'variable_2', 'variable_22', '', 'variable_18', 'variable_4', '', 'variable_7', 'variable_10', 'variable_22', 'variable_2', 'variable_4', 'variable_17', 'variable_2', 'variable_4', 'variable_3', '', 'variable_18', 'variable_24', '', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', 'variable_4', 'variable_0', '', '', '', '/', '/', '', 'variable_0', 'variable_9', 'variable_11', 'variable_17', 'variable_4', '', 'variable_2', 'variable_20', 'variable_4', 'variable_10', 'variable_4', '', 'variable_8', 'variable_10', 'variable_4', '', 'variable_15', 'variable_6', 'variable_16', 'variable_2', 'variable_9', 'variable_7', 'variable_16', 'variable_4', '', 'variable_2', 'variable_20', 'variable_10', 'variable_4', 'variable_8', 'variable_3', 'variable_0', '', 'variable_23', 'variable_10', 'variable_9', 'variable_2', 'variable_9', 'variable_11', 'variable_12', '', 'variable_2', 'variable_22', '', 'variable_2', 'variable_20', 'variable_4', 'variable_0', 'variable_4', '.', '', '', '', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', '', 'variable_10', 'variable_4', 'variable_0', 'variable_6', 'variable_16', 'variable_2', 'variable_14', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', ';', '', '', '', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', '', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', 'variable_14', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', ';', '', '', '', '', '', 'variable_23', 'variable_20', 'variable_9', 'variable_16', 'variable_4', '', '(', '!', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '.', 'variable_4', 'variable_15', 'variable_7', 'variable_2', 'variable_24', '(', ')', ')', '', '{', '', '', '', 'variable_11', 'variable_4', 'variable_13', 'variable_2', 'variable_14', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '.', 'variable_17', 'variable_16', 'variable_4', 'variable_8', 'variable_10', '(', ')', ';', '', '', '', '', '', '/', '/', '', 'variable_25', 'variable_20', 'variable_4', '', 'variable_23', 'variable_22', 'variable_10', 'variable_19', '', 'variable_9', 'variable_2', 'variable_4', 'variable_15', '', 'variable_26', 'variable_22', 'variable_10', '', 'variable_4', 'variable_27', 'variable_4', 'variable_10', 'variable_24', '', 'variable_9', 'variable_2', 'variable_4', 'variable_15', '', 'variable_9', 'variable_11', '', '`', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '`', '.', '', '', '', '/', '/', '', 'variable_7', 'variable_8', 'variable_2', 'variable_2', 'variable_4', 'variable_10', 'variable_11', ',', '', 'variable_23', 'variable_4', '', 'variable_7', 'variable_10', 'variable_22', 'variable_17', 'variable_4', 'variable_0', 'variable_0', '', 'variable_2', 'variable_20', 'variable_4', 'variable_15', '', 'variable_9', 'variable_11', '', 'variable_7', 'variable_8', 'variable_10', 'variable_8', 'variable_16', 'variable_16', 'variable_4', 'variable_16', '.', '', '', '', 'variable_8', 'variable_6', 'variable_2', 'variable_22', '', 'variable_20', 'variable_8', 'variable_11', 'variable_3', 'variable_16', 'variable_4', 'variable_14', 'variable_16', 'variable_4', 'variable_27', 'variable_4', 'variable_16', '', '=', '', '[', '&amp;', 'variable_26', 'variable_0', ',', '', '&amp;', 'variable_10', 'variable_4', 'variable_0', 'variable_6', 'variable_16', 'variable_2', 'variable_0', ',', '', '&amp;', 'variable_3', 'variable_9', 'variable_10', 'variable_0', ',', '', '&amp;', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', ',', '', '', '', '', '', '', '', '', '&amp;', 'variable_11', 'variable_4', 'variable_13', 'variable_2', 'variable_14', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', ',', '', '&amp;', 'variable_10', 'variable_4', 'variable_0', 'variable_6', 'variable_16', 'variable_2', 'variable_14', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', ',', '', '', '', '', '', '', '', '', '&amp;', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', 'variable_14', 'variable_15', 'variable_6', 'variable_2', 'variable_4', 'variable_13', ']', '(', 'variable_9', 'variable_11', 'variable_2', '', 'variable_9', ')', '', '{', '', '', '', '', '/', '/', '', 'variable_28', 'variable_4', 'variable_4', '', 'variable_9', 'variable_11', 'variable_27', 'variable_8', 'variable_10', 'variable_9', 'variable_8', 'variable_11', 'variable_2', 'variable_0', '', 'variable_8', 'variable_18', 'variable_22', 'variable_27', 'variable_4', ',', '', 'variable_8', 'variable_16', 'variable_16', '', 'variable_22', 'variable_26', '', 'variable_2', 'variable_20', 'variable_4', 'variable_0', 'variable_4', '', 'variable_8', 'variable_10', 'variable_4', '', 'variable_27', 'variable_8', 'variable_16', 'variable_9', 'variable_3', '', 'variable_8', 'variable_17', 'variable_17', 'variable_4', 'variable_0', 'variable_0', 'variable_4', 'variable_0', '.', '', '', '', '', 'variable_17', 'variable_22', 'variable_11', 'variable_0', 'variable_2', '', 'variable_8', 'variable_6', 'variable_2', 'variable_22', '&amp;', '', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', 'variable_14', 'variable_9', 'variable_2', 'variable_4', 'variable_15', '', '=', '', 'variable_4', 'variable_13', 'variable_7', 'variable_8', 'variable_11', 'variable_3', 'variable_14', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', '.', 'variable_8', 'variable_2', '(', 'variable_9', ')', ';', '', '', '', '', 'variable_17', 'variable_22', 'variable_11', 'variable_0', 'variable_2', '', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_0', 'variable_2', 'variable_10', 'variable_9', 'variable_11', 'variable_12', '&amp;', '', 'variable_7', 'variable_8', 'variable_10', 'variable_4', 'variable_11', 'variable_2', '', '=', '', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', 'variable_14', 'variable_9', 'variable_2', 'variable_4', 'variable_15', '.', 'variable_26', 'variable_9', 'variable_10', 'variable_0', 'variable_2', ';', '', '', '', '', 'variable_17', 'variable_22', 'variable_11', 'variable_0', 'variable_2', '', 'variable_9', 'variable_11', 'variable_2', '', 'variable_9', 'variable_11', 'variable_3', 'variable_4', 'variable_13', '', '=', '', 'variable_5', 'variable_6', 'variable_4', 'variable_6', 'variable_4', 'variable_14', 'variable_9', 'variable_2', 'variable_4', 'variable_15', '.', 'variable_0', 'variable_4', 'variable_17', 'variable_22', 'variable_11', 'variable_3', '', '+', '', '1', ';', '', '', '', '', 'variable_17', 'variable_22', 'variable_11', 'variable_0', 'variable_2', '', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_0', 'variable_2', 'variable_10', 'variable_9', 'variable_11', 'variable_12', '&amp;', '', 'variable_15', 'variable_8', 'variable_2', 'variable_17', 'variable_20', 'variable_14', 'variable_7', 'variable_8', 'variable_2', 'variable_2', 'variable_4', 'variable_10', 'variable_11', '', '=', '', 'variable_3', 'variable_9', 'variable_10', 'variable_0', '[', 'variable_9', 'variable_11', 'variable_3', 'variable_4', 'variable_13', ']', ';', '', '', '', '', '', '', '/', '/', '', 'variable_29', 'variable_4', 'variable_2', '', 'variable_8', 'variable_16', 'variable_16', '', 'variable_17', 'variable_20', 'variable_9', 'variable_16', 'variable_3', 'variable_10', 'variable_4', 'variable_11', '', 'variable_22', 'variable_26', '', '`', 'variable_7', 'variable_8', 'variable_10', 'variable_4', 'variable_11', 'variable_2', '`', '.', '', 'variable_30', 'variable_26', '', 'variable_2', 'variable_20', 'variable_9', 'variable_0', '', 'variable_26', 'variable_8', 'variable_9', 'variable_16', 'variable_0', ',', '', 'variable_10', 'variable_4', 'variable_2', 'variable_6', 'variable_10', 'variable_11', '', 'variable_4', 'variable_8', 'variable_10', 'variable_16', 'variable_24', '.', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_27', 'variable_4', 'variable_17', 'variable_2', 'variable_22', 'variable_10', '&lt;', 'variable_0', 'variable_2', 'variable_3', ':', ':', 'variable_0', 'variable_2', 'variable_10', 'variable_9', 'variable_11', 'variable_12', '&gt;', '', 'variable_17', 'variable_20', 'variable_9', 'variable_16', 'variable_3', 'variable_10', 'variable_4', 'variable_11', ';', '', '', '', '', 'variable_28', 'variable_2', 'variable_8', 'variable_2', 'variable_6', 'variable_0', '', 'variable_0', '', '=', '', 'variable_26', 'variable_0', '-', '&gt;', 'variable_29', 'variable_4', 'variable_2', 'variable_31', 'variable_20', 'variable_9', 'variable_16', 'variable_3', 'variable_10', 'variable_4', 'variable_11', '(', 'variable_7', 'variable_8', 'variable_10', 'variable_4', 'variable_11', 'variable_2', ',', '', '&amp;', 'variable_17', 'variable_20', 'variable_9', 'variable_16', 'variable_3', 'variable_10', 'variable_4', 'variable_11', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1135,7 +1295,12 @@
     </t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_0', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_5', 'variable_8', 'variable_10', 'variable_6', 'variable_5', 'variable_11', '(', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '1', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '1', ')', ',', '', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '2', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '2', ')', ')', ';', '', '', '', '', 'variable_22', 'variable_16', 'variable_23', 'variable_24', 'variable_22', 'variable_19', '', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '1', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '1', ')', ';', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,7 +1315,12 @@
 	</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_0', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_5', 'variable_8', 'variable_10', 'variable_6', 'variable_5', 'variable_11', '(', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '1', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '1', ')', ',', '', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '2', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '2', ')', ')', ';', '', '', '', 'variable_22', 'variable_16', 'variable_23', 'variable_24', 'variable_22', 'variable_19', '', 'variable_12', 'variable_23', 'variable_20', ':', ':', 'variable_18', 'variable_17', 'variable_19', '(', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '1', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '1', ')', ',', '', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_16', '2', '.', 'variable_7', 'variable_17', 'variable_18', 'variable_12', '(', 'variable_17', 'variable_19', 'variable_20', 'variable_16', 'variable_21', '2', ')', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1177,7 +1347,12 @@
     </t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', 'variable_1', 'variable_2', '', '{', '', '', '', '', '', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', '.', 'variable_4', 'variable_11', 'variable_13', 'variable_8', 'variable_14', 'variable_2', 'variable_15', 'variable_8', '', '=', '', '(', 'variable_16', 'variable_17', 'variable_8', 'variable_11', 'variable_5', '', '*', ')', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_16', 'variable_15', 'variable_5', 'variable_5', 'variable_11', 'variable_10', ';', '', '', '', '', '', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', '.', 'variable_7', 'variable_18', 'variable_7', 'variable_3', 'variable_6', 'variable_14', 'variable_2', 'variable_15', 'variable_8', '', '=', '', 'variable_19', 'variable_20', 'variable_21', 'variable_22', 'variable_23', 'variable_14', 'variable_16', 'variable_24', 'variable_25', 'variable_25', 'variable_23', 'variable_21', 'variable_14', 'variable_9', 'variable_26', 'variable_27', 'variable_23', ';', '', '', '', '', '', '', '', '', '', '', 'variable_11', 'variable_10', 'variable_10', '', '=', '', ':', ':', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_11', '(', '&amp;', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', ',', '', 'variable_27', 'variable_14', 'variable_25', 'variable_26', 'variable_28', 'variable_26', 'variable_9', 'variable_29', ')', ';', '', '', '', '', '', '', '', '', '', '', 'variable_3', 'variable_5', '', '(', '!', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', '.', 'variable_7', 'variable_18', 'variable_7', 'variable_3', 'variable_6', 'variable_14', 'variable_3', 'variable_4', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_30', 'variable_10', 'variable_11', 'variable_7', 'variable_31', ';', '', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', '', '', '', '', 'variable_0', 'variable_17', 'variable_4', 'variable_7', 'variable_12', 'variable_3', 'variable_32', 'variable_26', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_16', 'variable_15', 'variable_5', 'variable_5', 'variable_11', 'variable_10', '.', 'variable_7', 'variable_33', 'variable_33', 'variable_11', 'variable_4', 'variable_0', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_16', 'variable_15', 'variable_5', 'variable_5', 'variable_11', 'variable_10', ',', '', 'variable_19', 'variable_20', 'variable_21', 'variable_22', 'variable_23', 'variable_14', 'variable_16', 'variable_24', 'variable_25', 'variable_25', 'variable_23', 'variable_21', 'variable_14', 'variable_9', 'variable_26', 'variable_27', 'variable_23', '', '-', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', '.', 'variable_7', 'variable_18', 'variable_7', 'variable_3', 'variable_6', 'variable_14', 'variable_2', 'variable_15', 'variable_8', ')', ';', '', '', '', '', '', '', '}', '', 'variable_34', 'variable_35', 'variable_3', 'variable_6', 'variable_11', '', '(', 'variable_11', 'variable_10', 'variable_10', '', '=', '=', '', 'variable_27', 'variable_14', 'variable_16', 'variable_24', 'variable_25', 'variable_14', 'variable_23', 'variable_21', 'variable_21', 'variable_36', 'variable_21', ')', ';', '', '', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_11', 'variable_21', 'variable_11', 'variable_37', 'variable_11', 'variable_8', '(', '&amp;', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_3', 'variable_2', 'variable_4', 'variable_9', 'variable_8', 'variable_10', 'variable_11', 'variable_7', 'variable_12', ')', ';', '', '', '', '', '', '', '', 'variable_3', 'variable_5', '', '(', 'variable_11', 'variable_10', 'variable_10', '', '!', '=', '', 'variable_27', 'variable_14', 'variable_16', 'variable_24', 'variable_25', 'variable_14', 'variable_23', 'variable_21', 'variable_21', 'variable_36', 'variable_21', '', '&amp;', '&amp;', '', 'variable_11', 'variable_10', 'variable_10', '', '!', '=', '', 'variable_27', 'variable_14', 'variable_36', 'variable_38', ')', '', '{', '', '', '', '', '', '', '', '', '', '', 'variable_6', 'variable_11', 'variable_4', 'variable_39', 'variable_8', 'variable_35', '', '=', '', '0', ';', '', '', '', '', '', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_8', 'variable_15', 'variable_10', 'variable_4', '', 'variable_4', 'variable_15', 'variable_6', 'variable_6', 'variable_33', 'variable_8', 'variable_10', ';', '', '', '', '', '', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,7 +1379,12 @@
 	</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_2', 'variable_4', 'variable_5', '', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_2', '', 'variable_4', 'variable_7', 'variable_2', '', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_11', 'variable_14', 'variable_16', 'variable_16', 'variable_15', 'variable_13', 'variable_17', 'variable_12', 'variable_9', 'variable_15', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_17', 'variable_11', 'variable_22', '', '=', '', '1', '6', '7', '7', '7', '2', '1', '6', ';', '', '', '', '', 'variable_23', 'variable_6', '', '{', '', '', '', '', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_16', 'variable_2', 'variable_26', 'variable_27', 'variable_3', 'variable_28', '.', 'variable_7', 'variable_27', 'variable_29', 'variable_2', 'variable_15', 'variable_6', 'variable_30', 'variable_2', '', '=', '', '(', 'variable_31', 'variable_32', 'variable_2', 'variable_27', 'variable_24', '', '*', ')', '', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_31', 'variable_30', 'variable_24', 'variable_24', 'variable_27', 'variable_26', ';', '', '', '', '', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_16', 'variable_2', 'variable_26', 'variable_27', 'variable_3', 'variable_28', '.', 'variable_3', 'variable_33', 'variable_3', 'variable_4', 'variable_25', 'variable_15', 'variable_6', 'variable_30', 'variable_2', '', '=', '', 'variable_11', 'variable_12', 'variable_18', 'variable_21', 'variable_14', 'variable_15', 'variable_31', 'variable_20', 'variable_10', 'variable_10', 'variable_14', 'variable_18', 'variable_15', 'variable_16', 'variable_8', 'variable_34', 'variable_14', ';', '', '', '', '', 'variable_27', 'variable_26', 'variable_26', '', '=', '', ':', ':', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_27', '(', '&amp;', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_16', 'variable_2', 'variable_26', 'variable_27', 'variable_3', 'variable_28', ',', '', 'variable_34', 'variable_15', 'variable_10', 'variable_8', 'variable_9', 'variable_8', 'variable_16', 'variable_17', ')', ';', '', '', '', '', 'variable_4', 'variable_24', '', '(', '!', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_16', 'variable_2', 'variable_26', 'variable_27', 'variable_3', 'variable_28', '.', 'variable_3', 'variable_33', 'variable_3', 'variable_4', 'variable_25', 'variable_15', 'variable_4', 'variable_7', ')', '', '{', '', '', '', '', '', 'variable_35', 'variable_26', 'variable_27', 'variable_3', 'variable_36', ';', '', '', '', '', '}', '', '', '', '', '', '', '', '', '', '', 'variable_23', 'variable_32', 'variable_7', 'variable_3', 'variable_28', 'variable_4', 'variable_5', 'variable_8', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_31', 'variable_30', 'variable_24', 'variable_24', 'variable_27', 'variable_26', '.', 'variable_3', 'variable_37', 'variable_37', 'variable_27', 'variable_7', 'variable_23', '(', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_31', 'variable_30', 'variable_24', 'variable_24', 'variable_27', 'variable_26', ',', '', 'variable_11', 'variable_12', 'variable_18', 'variable_21', 'variable_14', 'variable_15', 'variable_31', 'variable_20', 'variable_10', 'variable_10', 'variable_14', 'variable_18', 'variable_15', 'variable_16', 'variable_8', 'variable_34', 'variable_14', '', '-', '', 'variable_4', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_16', 'variable_2', 'variable_26', 'variable_27', 'variable_3', 'variable_28', '.', 'variable_3', 'variable_33', 'variable_3', 'variable_4', 'variable_25', 'variable_15', 'variable_6', 'variable_30', 'variable_2', ')', ';', '', '', '', '', '', '', '}', '', 'variable_38', 'variable_39', 'variable_4', 'variable_25', 'variable_27', '', '(', 'variable_27', 'variable_26', 'variable_26', '', '=', '=', '', 'variable_34', 'variable_15', 'variable_31', 'variable_20', 'variable_10', 'variable_15', 'variable_14', 'variable_18', 'variable_18', 'variable_19', 'variable_18', '', '&amp;', '&amp;', '', 'variable_23', 'variable_32', 'variable_7', 'variable_3', 'variable_28', 'variable_4', 'variable_5', 'variable_8', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_31', 'variable_30', 'variable_24', 'variable_24', 'variable_27', 'variable_26', '.', 'variable_25', 'variable_27', 'variable_7', 'variable_40', 'variable_2', 'variable_39', '(', ')', '', '&lt;', '=', '', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_11', 'variable_14', 'variable_16', 'variable_16', 'variable_15', 'variable_13', 'variable_17', 'variable_12', 'variable_9', 'variable_15', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_17', 'variable_11', 'variable_22', ')', ';', '', '', '', '', '', '', '', '', '', 'variable_4', 'variable_24', '', '(', '(', 'variable_27', 'variable_26', 'variable_26', '', '!', '=', '', 'variable_34', 'variable_15', 'variable_31', 'variable_20', 'variable_10', 'variable_15', 'variable_14', 'variable_18', 'variable_18', 'variable_19', 'variable_18', '', '&amp;', '&amp;', '', 'variable_27', 'variable_26', 'variable_26', '', '!', '=', '', 'variable_34', 'variable_15', 'variable_19', 'variable_41', ')', '', '|', '|', '', 'variable_23', 'variable_32', 'variable_7', 'variable_3', 'variable_28', 'variable_4', 'variable_5', 'variable_8', 'variable_7', 'variable_24', 'variable_25', 'variable_3', 'variable_2', 'variable_4', 'variable_6', 'variable_7', 'variable_31', 'variable_30', 'variable_24', 'variable_24', 'variable_27', 'variable_26', '.', 'variable_25', 'variable_27', 'variable_7', 'variable_40', 'variable_2', 'variable_39', '(', ')', '', '&gt;', '', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_11', 'variable_14', 'variable_16', 'variable_16', 'variable_15', 'variable_13', 'variable_17', 'variable_12', 'variable_9', 'variable_15', 'variable_18', 'variable_19', 'variable_20', 'variable_21', 'variable_17', 'variable_11', 'variable_22', ')', '', '{', '', '', '', '', '', '', '', '', '', 'variable_25', 'variable_27', 'variable_7', 'variable_40', 'variable_2', 'variable_39', '', '=', '', '0', ';', '', '', '', '', '', '', '', '', '', 'variable_26', 'variable_27', 'variable_2', 'variable_30', 'variable_26', 'variable_7', '', 'variable_7', 'variable_30', 'variable_25', 'variable_25', 'variable_37', 'variable_2', 'variable_26', ';', '', '', '', '', '', '', '}', '', '']</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1218,7 +1398,12 @@
     </t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_0', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_6', 'variable_12', 'variable_13', 'variable_5', '*', '', 'variable_14', 'variable_15', 'variable_11', 'variable_6', 'variable_12', 'variable_13', 'variable_5', '', '=', '', 'variable_3', 'variable_11', 'variable_16', 'variable_5', 'variable_9', 'variable_0', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_4', 'variable_10', 'variable_11', 'variable_6', 'variable_12', 'variable_13', 'variable_5', '(', 'variable_5', 'variable_11', 'variable_16', 'variable_5', 'variable_9', 'variable_4', 'variable_14', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_4', 'variable_17', 'variable_18', 'variable_8', 'variable_19', 'variable_20', 'variable_5', 'variable_21', 'variable_14', 'variable_4', 'variable_17', 'variable_14', 'variable_9', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1235,7 +1420,12 @@
     </t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', '', '(', 'variable_4', 'variable_5', 'variable_6', '', 'variable_4', '', '=', '', '0', ';', '', 'variable_4', '', '&lt;', '', 'variable_7', ';', '', '+', '+', 'variable_4', ')', '', '{', '', '', '', '', '', '', '', '', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', '(', 'variable_4', ')', '', '=', '', 'variable_16', 'variable_3', 'variable_11', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', '(', 'variable_3', 'variable_14', 'variable_10', 'variable_14', 'variable_3', 'variable_15', 'variable_14', 'variable_9', 'variable_4', 'variable_5', 'variable_8', 'variable_14', 'variable_17', 'variable_9', 'variable_18', 'variable_11', 'variable_19', '(', 'variable_4', ')', ')', ';', '', '', '', '', '', '', '', '', 'variable_10', 'variable_4', 'variable_15', 'variable_4', 'variable_6', 'variable_14', 'variable_8', '(', 'variable_3', 'variable_14', 'variable_10', 'variable_14', 'variable_3', 'variable_15', 'variable_14', 'variable_9', 'variable_4', 'variable_5', 'variable_8', 'variable_14', 'variable_17', 'variable_9', 'variable_18', 'variable_11', 'variable_19', '(', 'variable_4', ')', ')', '', '=', '', 'variable_6', 'variable_3', 'variable_13', 'variable_14', ';', '', '', '', '', '', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1448,12 @@
 	</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', '(', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_27', 'variable_20', 'variable_23', 'variable_22', 'variable_26', 'variable_29', 'variable_18', 'variable_25', 'variable_28', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '', 'variable_30', 'variable_28', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', 'variable_27', 'variable_14', 'variable_10', 'variable_13', 'variable_11', 'variable_18', ',', '', 'variable_17', 'variable_20', 'variable_32', ':', '', '"', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', 'variable_3', 'variable_13', '-', '&gt;', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_28', 'variable_25', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_25', '(', ')', ')', ')', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_22', 'variable_12', 'variable_13', '6', '4', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '=', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', 'variable_3', 'variable_30', 'variable_20', 'variable_21', '(', 'variable_22', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', '0', '', '&lt;', '=', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '&amp;', '&amp;', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', '&lt;', '', 'variable_34', 'variable_3', 'variable_35', 'variable_28', 'variable_23', 'variable_23', ',', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_27', 'variable_20', 'variable_23', 'variable_22', 'variable_26', 'variable_29', 'variable_18', 'variable_25', 'variable_28', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_5', 'variable_23', 'variable_14', 'variable_30', 'variable_14', 'variable_12', 'variable_13', 'variable_17', '', 'variable_22', 'variable_12', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', '', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', '', 'variable_30', 'variable_28', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_22', 'variable_12', '', '[', '0', ',', '', '"', ',', '', '', '', '', '', '', '', '', 'variable_34', 'variable_3', 'variable_35', 'variable_28', 'variable_23', 'variable_23', ',', '', '"', ')', '', 'variable_31', 'variable_28', 'variable_13', '', 'variable_25', 'variable_11', 'variable_13', '', '"', ',', '', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', ')', ';', '', '', '', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '(', 'variable_22', ')', '', '=', '', 'variable_25', 'variable_18', 'variable_20', 'variable_26', 'variable_3', 'variable_27', 'variable_20', 'variable_23', 'variable_28', 'variable_14', 'variable_17', '(', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', ';', '', '', '', 'variable_27', 'variable_22', 'variable_17', 'variable_22', 'variable_13', 'variable_14', 'variable_26', '(', 'variable_18', 'variable_14', 'variable_27', 'variable_14', 'variable_18', 'variable_17', 'variable_14', 'variable_3', 'variable_22', 'variable_12', 'variable_26', 'variable_14', 'variable_15', ')', '', '=', '', 'variable_13', 'variable_18', 'variable_28', 'variable_14', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1469,12 @@
     </t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['}', '', 'variable_1', 'variable_2', 'variable_3', 'variable_0', '', 'variable_4', 'variable_5', '', '(', 'variable_6', 'variable_3', 'variable_0', 'variable_7', 'variable_8', 'variable_0', 'variable_4', 'variable_9', 'variable_10', 'variable_11', 'variable_3', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', 'variable_12', 'variable_0', 'variable_13', 'variable_7', 'variable_14', 'variable_15', 'variable_11', 'variable_16', 'variable_10', 'variable_7', 'variable_16', 'variable_17', 'variable_6', 'variable_18', 'variable_11', 'variable_3', '[', 'variable_14', 'variable_15', 'variable_11', 'variable_16', 'variable_10', ']', '[', 'variable_19', 'variable_15', 'variable_2', 'variable_6', 'variable_0', ']', '', '+', '=', '', 'variable_8', 'variable_0', 'variable_4', 'variable_9', 'variable_10', 'variable_11', 'variable_7', 'variable_19', 'variable_15', 'variable_2', 'variable_6', 'variable_0', 'variable_3', '(', 'variable_4', 'variable_20', 'variable_21', ')', ';', '', '', '', '', '', '', '', '', '', '}', '', 'variable_0', 'variable_2', 'variable_3', 'variable_0', '', '{', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1523,12 @@
 	</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_16', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', 'variable_9', 'variable_19', 'variable_20', 'variable_21', 'variable_14', 'variable_7', 'variable_13', 'variable_22', 'variable_23', 'variable_17', ':', ':', 'variable_8', 'variable_17', 'variable_24', 'variable_20', 'variable_13', 'variable_18', 'variable_22', 'variable_15', '(', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ')', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '"', 'variable_8', 'variable_12', 'variable_21', 'variable_29', 'variable_13', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_31', 'variable_14', '', 'variable_20', '', '2', '-', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', 'variable_20', 'variable_23', '', 'variable_13', 'variable_14', 'variable_12', 'variable_17', 'variable_11', 'variable_18', '.', '', 'variable_32', 'variable_11', 'variable_13', ':', '', '"', ',', '', '', '', '', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', 'variable_22', 'variable_34', '', '(', 'variable_29', 'variable_17', 'variable_14', 'variable_3', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', ')', '', '{', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '', '=', '=', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ',', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '"', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '', 'variable_20', 'variable_12', 'variable_25', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_19', 'variable_20', 'variable_26', 'variable_14', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_17', 'variable_20', 'variable_30', 'variable_14', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', '', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', '', '', '', '', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ',', '', '', '', '', '', '', '"', ';', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '}', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', '=', '=', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_25', 'variable_22', 'variable_30', 'variable_3', 'variable_17', 'variable_22', 'variable_37', 'variable_14', '(', '0', ')', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '"', 'variable_38', 'variable_29', 'variable_30', 'variable_31', 'variable_14', 'variable_18', '', 'variable_11', 'variable_34', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_30', 'variable_20', 'variable_13', 'variable_10', 'variable_19', '', 'variable_34', 'variable_22', 'variable_18', 'variable_17', 'variable_13', '', 'variable_25', 'variable_22', 'variable_30', 'variable_14', 'variable_12', 'variable_17', 'variable_22', 'variable_11', 'variable_12', '', 'variable_11', 'variable_34', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', '"', ',', '', '', '', '', '', '"', 'variable_32', 'variable_11', 'variable_13', '', '"', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', '', '', '', '', '"', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_22', 'variable_12', 'variable_25', 'variable_22', 'variable_10', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '', '', '', 'variable_22', 'variable_34', '', '(', 'variable_29', 'variable_17', 'variable_14', 'variable_3', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', ')', '', '{', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '', '=', '=', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', ',', '', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '', '"', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '', 'variable_20', 'variable_12', 'variable_25', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_19', 'variable_20', 'variable_26', 'variable_14', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_17', 'variable_20', 'variable_30', 'variable_14', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '.', '', 'variable_36', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', '', '', '', '', '', 'variable_35', 'variable_14', 'variable_22', 'variable_28', 'variable_19', 'variable_13', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ',', '', '', '', '', '', '', '"', ';', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', ':', '', '"', ',', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '.', 'variable_17', 'variable_19', 'variable_20', 'variable_21', 'variable_14', '(', ')', '.', 'variable_33', 'variable_14', 'variable_31', 'variable_29', 'variable_28', 'variable_9', 'variable_13', 'variable_18', 'variable_22', 'variable_12', 'variable_28', '(', ')', ')', ')', ';', '', '', '', '', '}', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_31', 'variable_20', 'variable_13', 'variable_10', 'variable_19', 'variable_14', 'variable_17', '', '&gt;', '', '0', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '"', 'variable_24', 'variable_29', 'variable_17', 'variable_13', '', 'variable_21', 'variable_18', 'variable_11', 'variable_26', 'variable_22', 'variable_25', 'variable_14', '', 'variable_20', 'variable_13', '', 'variable_23', 'variable_14', 'variable_20', 'variable_17', 'variable_13', '', '2', '', 'variable_14', 'variable_23', 'variable_14', 'variable_30', 'variable_14', 'variable_12', 'variable_13', 'variable_17', '', 'variable_34', 'variable_11', 'variable_18', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_17', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', '', 'variable_20', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '"', ')', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_17', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '(', '0', ')', '', '=', '=', '', '0', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '"', 'variable_9', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_17', 'variable_13', 'variable_20', 'variable_18', 'variable_13', '', 'variable_35', 'variable_22', 'variable_13', 'variable_19', '', '0', ',', '', 'variable_12', 'variable_11', 'variable_13', '', 'variable_35', 'variable_22', 'variable_13', 'variable_19', '', '"', ',', '', '', '', '', '', '', '', '', '', '', 'variable_17', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '(', '0', ')', ')', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_14', 'variable_15', 'variable_13', ',', '', 'variable_17', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '(', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_31', 'variable_20', 'variable_13', 'variable_10', 'variable_19', 'variable_14', 'variable_17', ')', '', '=', '=', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', '', '', '', 'variable_14', 'variable_18', 'variable_18', 'variable_11', 'variable_18', 'variable_17', ':', ':', 'variable_8', 'variable_12', 'variable_26', 'variable_20', 'variable_23', 'variable_22', 'variable_25', 'variable_27', 'variable_18', 'variable_28', 'variable_29', 'variable_30', 'variable_14', 'variable_12', 'variable_13', '(', '', '', '', '', '', '"', 'variable_9', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', '', 'variable_30', 'variable_29', 'variable_17', 'variable_13', '', 'variable_14', 'variable_12', 'variable_25', '', 'variable_35', 'variable_22', 'variable_13', 'variable_19', '', 'variable_13', 'variable_19', 'variable_14', '', 'variable_12', 'variable_29', 'variable_30', 'variable_31', 'variable_14', 'variable_18', '', 'variable_11', 'variable_34', '', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ',', '', 'variable_28', 'variable_11', 'variable_13', '', '"', ',', '', '', '', '', '', 'variable_17', 'variable_21', 'variable_23', 'variable_22', 'variable_13', 'variable_17', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', '(', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_31', 'variable_20', 'variable_13', 'variable_10', 'variable_19', 'variable_14', 'variable_17', ')', ',', '', '"', '', 'variable_22', 'variable_12', 'variable_17', 'variable_13', 'variable_14', 'variable_20', 'variable_25', '', 'variable_11', 'variable_34', '', '"', ',', '', 'variable_12', 'variable_29', 'variable_30', 'variable_3', 'variable_26', 'variable_20', 'variable_23', 'variable_29', 'variable_14', 'variable_17', ')', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1543,12 @@
     </t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', '', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_13', 'variable_3', '', '=', '', 'variable_8', 'variable_9', 'variable_10', '-', '&gt;', 'variable_12', 'variable_13', 'variable_3', 'variable_6', 'variable_13', 'variable_3', 'variable_11', 'variable_3', 'variable_5', 'variable_6', 'variable_7', '(', 'variable_12', 'variable_13', 'variable_3', 'variable_6', 'variable_13', 'variable_3', 'variable_11', 'variable_14', 'variable_15', 'variable_16', 'variable_7', 'variable_17', ')', ';', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_2', 'variable_4', 'variable_5', 'variable_6', 'variable_7', '', 'variable_16', 'variable_8', 'variable_3', 'variable_11', 'variable_14', 'variable_15', '', '=', '', 'variable_16', 'variable_8', 'variable_3', '-', '&gt;', 'variable_14', 'variable_15', 'variable_6', 'variable_13', 'variable_3', 'variable_11', 'variable_3', 'variable_5', 'variable_6', 'variable_7', '(', 'variable_14', 'variable_15', 'variable_6', 'variable_13', 'variable_3', 'variable_11', 'variable_14', 'variable_15', 'variable_16', 'variable_7', 'variable_17', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1361,7 +1571,12 @@
 	</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', '', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', '', '&gt;', '=', '', 'variable_12', 'variable_13', 'variable_14', '-', '&gt;', 'variable_8', 'variable_4', 'variable_15', 'variable_7', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '(', ')', ')', '', '{', '', '', '', '', 'variable_13', 'variable_10', 'variable_5', 'variable_4', 'variable_13', 'variable_8', '', 'variable_10', 'variable_13', 'variable_13', 'variable_3', 'variable_13', 'variable_12', ':', ':', 'variable_16', 'variable_8', 'variable_17', 'variable_18', 'variable_19', 'variable_0', 'variable_9', 'variable_20', 'variable_13', 'variable_21', 'variable_4', 'variable_15', 'variable_10', 'variable_8', 'variable_5', '(', '', '', '', '', '"', 'variable_22', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', '', '"', ',', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', ',', '', '"', '', 'variable_3', 'variable_2', '', 'variable_8', 'variable_3', 'variable_9', 'variable_10', '', '"', ',', '', 'variable_12', 'variable_13', 'variable_14', '-', '&gt;', 'variable_8', 'variable_18', 'variable_15', 'variable_10', '(', ')', ',', '', '', '', '', '"', '', 'variable_9', 'variable_3', 'variable_10', 'variable_12', '', 'variable_8', 'variable_3', 'variable_5', '', 'variable_10', 'variable_11', 'variable_0', 'variable_12', 'variable_5', '.', '', 'variable_23', 'variable_3', 'variable_9', 'variable_10', '', 'variable_3', 'variable_8', 'variable_19', 'variable_24', '', 'variable_25', 'variable_18', 'variable_12', '', '"', ',', '', 'variable_12', 'variable_13', 'variable_14', '-', '&gt;', 'variable_8', 'variable_4', 'variable_15', 'variable_7', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '(', ')', ',', '', '"', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '.', '"', ')', ';', '', '', '', '}', '', '', '', 'variable_0', 'variable_2', '', '(', 'variable_0', 'variable_8', 'variable_6', 'variable_4', 'variable_5', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', '', '&gt;', '=', '', 'variable_9', 'variable_12', 'variable_5', '-', '&gt;', 'variable_8', 'variable_4', 'variable_15', 'variable_7', 'variable_0', 'variable_8', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '(', ')', ')', '', '{', '', '', '', '', 'variable_13', 'variable_10', 'variable_5', 'variable_4', 'variable_13', 'variable_8', '', 'variable_10', 'variable_13', 'variable_13', 'variable_3', 'variable_13', 'variable_12', ':', ':', 'variable_16', 'variable_8', 'variable_17', 'variable_18', 'variable_19', 'variable_0', 'variable_9', 'variable_20', 'variable_13', 'variable_21', 'variable_4', 'variable_15', 'variable_10', 'variable_8', 'variable_5', '(', '', '', '', '', '"', 'variable_16', 'variable_8', 'variable_6', 'variable_4', 'variable_5', '', '"', ',', '', 'variable_0', 'variable_8', 'variable_6', 'variable_4', 'variable_5', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', ',', '', '"', '', 'variable_3', 'variable_2', '', 'variable_8', 'variable_3', 'variable_9', 'variable_10', '', '"', ',', '', 'variable_9', 'variable_12', 'variable_5', '-', '&gt;', 'variable_8', 'variable_18', 'variable_15', 'variable_10', '(', ')', ',', '', '', '', '', '"', '', 'variable_9', 'variable_3', 'variable_10', 'variable_12', '', 'variable_8', 'variable_3', 'variable_5', '', 'variable_10', 'variable_11', 'variable_0', 'variable_12', 'variable_5', '.', '', 'variable_23', 'variable_3', 'variable_9', 'variable_10', '', 'variable_3', 'variable_8', 'variable_19', 'variable_24', '', 'variable_25', 'variable_18', 'variable_12', '', '"', ',', '', 'variable_9', 'variable_12', 'variable_5', '-', '&gt;', 'variable_8', 'variable_4', 'variable_15', 'variable_7', 'variable_0', 'variable_8', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '(', ')', ',', '', '"', '', 'variable_0', 'variable_8', 'variable_6', 'variable_4', 'variable_5', 'variable_12', '.', '"', ')', ';', '', '', '', '}', '', '']</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1375,7 +1590,12 @@
     </t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', '', 'variable_6', 'variable_3', 'variable_5', '', 'variable_7', 'variable_8', 'variable_9', 'variable_5', 'variable_10', '', '=', '', '(', 'variable_11', 'variable_12', 'variable_6', 'variable_4', 'variable_13', '', '=', '=', '', '-', '1', ')', '', '?', '', '1', '', ':', '', 'variable_6', 'variable_3', 'variable_9', 'variable_14', 'variable_5', '.', 'variable_7', 'variable_6', 'variable_15', 'variable_13', 'variable_4', 'variable_6', 'variable_16', 'variable_8', '(', 'variable_11', 'variable_12', 'variable_6', 'variable_4', 'variable_13', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1612,12 @@
 	</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_4', 'variable_5', 'variable_9', '(', '', '', '', '', '', '', '', '', '', 'variable_10', 'variable_11', 'variable_12', ',', '', '(', 'variable_13', 'variable_12', 'variable_14', 'variable_15', 'variable_3', '', '=', '=', '', '-', '1', '', '|', '|', '', 'variable_13', 'variable_12', 'variable_14', 'variable_15', 'variable_3', '', '&lt;', '', 'variable_14', 'variable_16', 'variable_17', 'variable_18', 'variable_11', '.', 'variable_15', 'variable_19', 'variable_13', 'variable_17', 'variable_20', '(', ')', '.', 'variable_21', 'variable_14', 'variable_22', 'variable_15', '(', ')', ')', ',', '', '', '', '', '', '', '', '', '', 'variable_20', 'variable_23', 'variable_23', 'variable_24', 'variable_23', 'variable_15', ':', ':', 'variable_8', 'variable_16', 'variable_25', 'variable_13', 'variable_26', 'variable_14', 'variable_21', 'variable_27', 'variable_23', 'variable_28', 'variable_18', 'variable_22', 'variable_20', 'variable_16', 'variable_11', '(', '"', 'variable_9', 'variable_19', 'variable_13', 'variable_17', 'variable_20', '', 'variable_22', 'variable_18', 'variable_15', 'variable_11', '', 'variable_29', 'variable_20', '', 'variable_13', 'variable_11', '', 'variable_26', 'variable_20', 'variable_13', 'variable_15', 'variable_11', '', 'variable_23', 'variable_13', 'variable_16', 'variable_30', '', '"', ',', '', 'variable_13', 'variable_12', 'variable_14', 'variable_15', 'variable_3', '', '+', '', '1', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '"', '', 'variable_29', 'variable_18', 'variable_11', '', 'variable_14', 'variable_15', '', 'variable_23', 'variable_13', 'variable_16', 'variable_30', '', '"', ',', '', 'variable_14', 'variable_16', 'variable_17', 'variable_18', 'variable_11', '.', 'variable_15', 'variable_19', 'variable_13', 'variable_17', 'variable_20', '(', ')', '.', 'variable_21', 'variable_14', 'variable_22', 'variable_15', '(', ')', ')', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1413,7 +1638,12 @@
     </t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_0', 'variable_2', '', '&lt;', '&gt;', '', '', '/', '*', '', 'variable_7', 'variable_0', 'variable_6', 'variable_0', 'variable_8', 'variable_9', '', '*', '/', '', '', 'variable_8', 'variable_10', 'variable_5', 'variable_8', 'variable_10', 'variable_2', '', 'variable_11', 'variable_12', 'variable_8', 'variable_13', '', 'variable_14', 'variable_15', 'variable_4', 'variable_2', 'variable_13', 'variable_16', 'variable_5', 'variable_5', 'variable_12', 'variable_9', 'variable_6', 'variable_0', 'variable_12', 'variable_17', ':', ':', 'variable_18', 'variable_19', 'variable_10', 'variable_20', 'variable_0', 'variable_12', 'variable_17', '(', 'variable_16', 'variable_5', 'variable_5', 'variable_12', 'variable_9', 'variable_6', 'variable_0', 'variable_12', 'variable_17', '*', '', 'variable_17', 'variable_6', 'variable_21', 'variable_22', 'variable_6', 'variable_5', 'variable_5', 'variable_12', 'variable_9', 'variable_6', 'variable_0', 'variable_12', 'variable_17', ',', '', 'variable_0', 'variable_7', 'variable_0', 'variable_17', 'variable_8', 'variable_10', 'variable_23', '*', '', 'variable_4', ',', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_7', 'variable_8', 'variable_24', 'variable_2', 'variable_22', 'variable_0', '', 'variable_10', ')', '', '{', '', '', '', '', 'variable_8', 'variable_25', '', '(', '!', 'variable_17', 'variable_6', 'variable_21', 'variable_22', 'variable_6', 'variable_5', 'variable_5', 'variable_12', 'variable_9', 'variable_6', 'variable_0', 'variable_12', 'variable_17', '-', '&gt;', 'variable_16', 'variable_5', 'variable_5', 'variable_12', 'variable_9', 'variable_6', 'variable_0', 'variable_2', 'variable_7', 'variable_26', 'variable_4', 'variable_6', 'variable_27', 'variable_19', 'variable_2', 'variable_28', 'variable_6', 'variable_10', 'variable_13', 'variable_5', 'variable_2', '(', ')', ')', '', '{', '', '', '', '', '', '', 'variable_25', 'variable_12', 'variable_17', '', '(', 'variable_7', 'variable_8', 'variable_24', 'variable_2', 'variable_22', 'variable_0', '', 'variable_8', '', '=', '', '0', ';', '', 'variable_8', '', '&lt;', '', 'variable_10', ';', '', '+', '+', 'variable_4', ',', '', '+', '+', 'variable_8', ')', '', 'variable_10', 'variable_2', 'variable_21', '', '(', 'variable_4', ')', '', 'variable_0', 'variable_7', 'variable_0', 'variable_17', 'variable_8', 'variable_10', 'variable_23', '(', ')', ';', '', '', '', '', '}', '', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,7 +1657,12 @@
 	</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_2', 'variable_3', '', 'variable_4', 'variable_3', 'variable_3', 'variable_2', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_6', 'variable_12', 'variable_13', 'variable_8', 'variable_14', 'variable_6', 'variable_15', 'variable_16', 'variable_3', 'variable_8', '(', ')', '', 'variable_5', 'variable_2', 'variable_15', 'variable_9', 'variable_7', '', 'variable_2', 'variable_17', 'variable_8', 'variable_18', 'variable_18', 'variable_19', 'variable_16', 'variable_8', '', '{', '', 'variable_18', 'variable_8', 'variable_7', 'variable_13', 'variable_18', 'variable_15', '', 'variable_7', 'variable_18', 'variable_13', 'variable_8', ';', '', '}', '', '']</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1443,7 +1678,12 @@
     </t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', '', '(', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_12', 'variable_7', 'variable_0', 'variable_5', 'variable_6', 'variable_13', 'variable_0', 'variable_4', 'variable_14', '.', 'variable_15', 'variable_16', 'variable_17', 'variable_17', 'variable_9', 'variable_14', 'variable_13', '.', 'variable_18', 'variable_9', 'variable_19', 'variable_19', 'variable_6', 'variable_20', 'variable_9', 'variable_21', 'variable_9', 'variable_22', 'variable_23', 'variable_19', 'variable_24', 'variable_6', 'variable_7', 'variable_16', 'variable_9', 'variable_23', 'variable_14', 'variable_25', 'variable_9', 'variable_2', 'variable_6', 'variable_16', 'variable_7', 'variable_13', 'variable_3', 'variable_6', 'variable_14', 'variable_20', 'variable_16', 'variable_6', 'variable_20', 'variable_9', '', '', '', '', '&amp;', '&amp;', '', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_0', 'variable_8', 'variable_9', 'variable_10', 'variable_11', 'variable_12', 'variable_12', 'variable_7', 'variable_0', 'variable_5', 'variable_6', 'variable_13', 'variable_0', 'variable_4', 'variable_14', '.', 'variable_15', 'variable_16', 'variable_17', 'variable_17', 'variable_9', 'variable_14', 'variable_13', '.', 'variable_25', 'variable_9', 'variable_2', 'variable_6', 'variable_16', 'variable_7', 'variable_13', 'variable_3', 'variable_6', 'variable_14', 'variable_20', 'variable_16', 'variable_6', 'variable_20', 'variable_9', 'variable_26', 'variable_6', 'variable_20', '.', 'variable_27', 'variable_28', 'variable_16', 'variable_6', 'variable_7', 'variable_19', '(', 'variable_7', 'variable_6', 'variable_14', 'variable_20', 'variable_13', 'variable_6', 'variable_20', ')', ')', '', '{', '', '', '', '', 'variable_17', 'variable_9', 'variable_13', 'variable_16', 'variable_17', 'variable_14', '', 'variable_13', 'variable_17', 'variable_16', 'variable_9', ';', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1472,7 +1712,12 @@
     </t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_0', '', 'variable_4', 'variable_5', '', '(', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '-', '&gt;', 'variable_9', 'variable_3', 'variable_10', 'variable_11', 'variable_11', 'variable_7', 'variable_12', '(', ')', ')', '', '{', '', '', '', '', '', '', '', '', '', 'variable_13', 'variable_14', 'variable_15', 'variable_7', 'variable_2', '&lt;', 'variable_10', 'variable_11', 'variable_11', 'variable_7', 'variable_12', '&gt;', '', 'variable_7', 'variable_11', 'variable_11', '', '=', '', 'variable_13', 'variable_14', 'variable_15', 'variable_7', 'variable_2', '&lt;', 'variable_10', 'variable_11', 'variable_11', 'variable_7', 'variable_12', '&gt;', ':', ':', 'variable_16', 'variable_7', 'variable_3', 'variable_17', '(', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_0', ')', ';', '', '', '', '', '', '', '', '', '', 'variable_3', 'variable_4', 'variable_18', 'variable_0', 'variable_19', 'variable_17', '', 'variable_2', 'variable_0', 'variable_20', '', '=', '', 'variable_7', 'variable_11', 'variable_11', '-', '&gt;', 'variable_13', 'variable_0', 'variable_20', 'variable_21', 'variable_17', 'variable_22', '(', ')', ';', '', '', '', '', '', '', '', '', '', '', 'variable_23', 'variable_4', 'variable_20', 'variable_7', 'variable_11', 'variable_12', 'variable_24', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '', '*', '*', 'variable_7', 'variable_11', 'variable_12', '', '=', '', 'variable_25', 'variable_7', 'variable_2', 'variable_2', 'variable_14', 'variable_15', '(', 'variable_7', 'variable_11', 'variable_12', ',', '', 'variable_3', 'variable_4', 'variable_18', 'variable_0', 'variable_14', 'variable_5', '(', '*', 'variable_7', 'variable_11', 'variable_12', ')', '', '*', '', 'variable_2', 'variable_0', 'variable_20', ')', ';', '', '', '', '', '', '', '', '', '', '', 'variable_11', 'variable_0', 'variable_3', '-', '&gt;', 'variable_17', 'variable_12', 'variable_26', 'variable_0', '', '=', '', 'variable_17', 'variable_12', 'variable_26', 'variable_0', 'variable_19', 'variable_7', 'variable_11', 'variable_11', 'variable_7', 'variable_12', ';', '', '', '', '', '', '', '', '', '', 'variable_11', 'variable_0', 'variable_3', '-', '&gt;', 'variable_7', 'variable_11', 'variable_11', 'variable_7', 'variable_12', 'variable_19', 'variable_6', 'variable_7', 'variable_2', '', '=', '', 'variable_7', 'variable_11', 'variable_12', ';', '', '', '', '', '', '', '', '', '', '', 'variable_5', 'variable_14', 'variable_11', '(', 'variable_8', 'variable_4', 'variable_20', 'variable_17', '3', '2', 'variable_19', 'variable_17', '', 'variable_4', '', '=', '', '0', ';', '', 'variable_4', '', '&lt;', '', 'variable_7', 'variable_11', 'variable_11', '-', '&gt;', 'variable_13', 'variable_0', 'variable_20', 'variable_21', 'variable_17', 'variable_22', '(', ')', ';', '', 'variable_4', '+', '+', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_13', 'variable_14', 'variable_15', 'variable_7', 'variable_2', '&lt;', 'variable_24', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '&gt;', '', 'variable_0', 'variable_2', 'variable_0', 'variable_27', 'variable_0', 'variable_20', 'variable_17', '', '=', '', 'variable_7', 'variable_11', 'variable_11', '-', '&gt;', 'variable_28', 'variable_0', 'variable_17', '(', 'variable_15', 'variable_14', 'variable_20', 'variable_17', 'variable_0', 'variable_25', 'variable_17', ',', '', 'variable_4', ')', '.', 'variable_29', 'variable_14', 'variable_13', 'variable_14', 'variable_15', 'variable_7', 'variable_2', 'variable_16', 'variable_22', 'variable_0', 'variable_15', 'variable_30', 'variable_0', 'variable_31', '(', ')', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_23', 'variable_4', 'variable_20', 'variable_7', 'variable_11', 'variable_12', 'variable_24', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '', '*', 'variable_32', 'variable_4', 'variable_20', 'variable_19', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '', '=', '', 'variable_15', 'variable_14', 'variable_20', 'variable_6', 'variable_0', 'variable_11', 'variable_17', 'variable_19', 'variable_6', '8', 'variable_19', 'variable_17', 'variable_14', 'variable_19', 'variable_32', 'variable_4', 'variable_20', 'variable_7', 'variable_11', 'variable_12', '(', 'variable_4', 'variable_3', 'variable_14', 'variable_2', 'variable_7', 'variable_17', 'variable_0', ',', '', 'variable_15', 'variable_14', 'variable_20', 'variable_17', 'variable_0', 'variable_25', 'variable_17', ',', '', 'variable_0', 'variable_2', 'variable_0', 'variable_27', 'variable_0', 'variable_20', 'variable_17', ')', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_4', 'variable_5', '', '(', 'variable_32', 'variable_4', 'variable_20', 'variable_19', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_0', '', '=', '=', '', 'variable_33', 'variable_34', 'variable_13', 'variable_13', ')', '', '{', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_21', 'variable_14', 'variable_17', 'variable_14', '', 'variable_0', 'variable_11', 'variable_11', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_7', 'variable_11', 'variable_12', '[', 'variable_4', ']', '', '=', '', 'variable_32', 'variable_4', 'variable_20', 'variable_19', 'variable_6', 'variable_7', 'variable_2', 'variable_8', 'variable_0', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_11', 'variable_0', 'variable_3', '-', '&gt;', 'variable_2', 'variable_0', 'variable_20', '+', '+', ';', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '}', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,7 +1737,12 @@
     </t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['*', '(', 'variable_1', 'variable_2', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', 'variable_3', 'variable_8', '*', ')', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_10', 'variable_5', 'variable_6', 'variable_7', '', '=', '', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_11', 'variable_4', '-', '&gt;', 'variable_8', 'variable_12', 'variable_13', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_5', 'variable_14', '', '(', 'variable_15', 'variable_16', 'variable_3', 'variable_17', 'variable_18', 'variable_19', 'variable_15', 'variable_20', '(', 'variable_8', 'variable_21', 'variable_0', 'variable_7', ')', '', '=', '=', '', 'variable_15', 'variable_16', 'variable_3', 'variable_17', 'variable_18', 'variable_19', 'variable_15', 'variable_20', 'variable_3', 'variable_10', 'variable_22', 'variable_16', 'variable_23', 'variable_20', 'variable_10', 'variable_10', 'variable_24', 'variable_25', 'variable_20', ')', '', '', '', '', '', '', '', '', '', '', '', '', '', '{', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_26', 'variable_7', 'variable_26', 'variable_4', 'variable_7', 'variable_8', '(', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_27', 'variable_12', 'variable_8', 'variable_12', ',', '', '0', ',', '', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_11', 'variable_4', '-', '&gt;', 'variable_28', 'variable_12', 'variable_8', 'variable_12', 'variable_3', 'variable_4', 'variable_5', 'variable_6', 'variable_7', ')', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_0', 'variable_2', 'variable_3', 'variable_26', 'variable_7', 'variable_4', 'variable_4', 'variable_12', 'variable_13', 'variable_7', 'variable_3', 'variable_4', 'variable_7', 'variable_8', 'variable_3', 'variable_8', 'variable_11', 'variable_3', 'variable_28', 'variable_7', 'variable_14', 'variable_12', 'variable_29', 'variable_30', 'variable_8', 'variable_4', '(', '(', 'variable_31', 'variable_11', 'variable_32', 'variable_4', 'variable_8', '', 'variable_0', 'variable_2', 'variable_3', 'variable_14', 'variable_5', 'variable_7', 'variable_30', 'variable_28', 'variable_3', 'variable_8', '*', ')', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_11', 'variable_4', '-', '&gt;', 'variable_0', 'variable_8', 'variable_9', ',', '', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_27', 'variable_12', 'variable_8', 'variable_12', ')', ';', '', '', '', '', '', '', '', '', '', '', '', '', '', '}', '', '', '', '', '', '', '', '', '', '', '', '', '', '', 'variable_9', 'variable_7', 'variable_8', 'variable_29', 'variable_9', 'variable_32', '', 'variable_14', 'variable_29', 'variable_32', 'variable_31', '(', 'variable_4', 'variable_8', 'variable_9', 'variable_7', 'variable_12', 'variable_26', ',', '', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_11', 'variable_4', ',', '', 'variable_5', 'variable_8', 'variable_7', 'variable_9', '-', '&gt;', 'variable_0', 'variable_27', 'variable_12', 'variable_8', 'variable_12', ')', ';', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1517,7 +1767,12 @@
 	</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['', '', 'variable_1', 'variable_2', 'variable_3', 'variable_4', '', 'variable_5', 'variable_6', 'variable_7', 'variable_8', 'variable_9', 'variable_10', 'variable_5', 'variable_11', 'variable_7', 'variable_12', 'variable_13', 'variable_11', 'variable_12', 'variable_14', ':', '', '', '', 'variable_15', 'variable_16', '', '(', 'variable_5', 'variable_6', 'variable_7', 'variable_17', 'variable_9', 'variable_10', 'variable_5', 'variable_11', '(', 'variable_18', 'variable_19', 'variable_20', 'variable_4', ')', '', '=', '=', '', 'variable_5', 'variable_6', 'variable_7', 'variable_17', 'variable_9', 'variable_10', 'variable_5', 'variable_11', 'variable_7', 'variable_21', 'variable_22', 'variable_6', 'variable_23', 'variable_11', 'variable_21', 'variable_21', 'variable_24', 'variable_25', 'variable_11', '', '&amp;', '&amp;', '', '', '', '', '*', '(', 'variable_20', 'variable_26', 'variable_7', 'variable_3', 'variable_15', 'variable_27', 'variable_4', 'variable_7', 'variable_18', '*', ')', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_21', 'variable_15', 'variable_27', 'variable_4', '', '!', '=', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_29', 'variable_3', '-', '&gt;', 'variable_18', 'variable_2', 'variable_30', ')', '', '', '', '{', '', '', '', '', '/', '*', '', 'variable_31', 'variable_4', '', 'variable_32', 'variable_4', 'variable_32', 'variable_3', 'variable_4', 'variable_18', '', 'variable_18', 'variable_29', '', 'variable_27', 'variable_4', 'variable_28', 'variable_29', '', 'variable_3', 'variable_29', '', 'variable_18', 'variable_33', 'variable_2', 'variable_18', '', 'variable_2', 'variable_34', 'variable_19', '', 'variable_0', 'variable_2', 'variable_35', 'variable_35', 'variable_26', 'variable_2', 'variable_0', 'variable_36', 'variable_3', '', 'variable_2', 'variable_28', 'variable_4', '', 'variable_3', 'variable_4', 'variable_18', '', 'variable_18', 'variable_29', '', 'variable_13', 'variable_22', 'variable_17', 'variable_17', '.', '', '', '', '', '', '*', '', 'variable_9', 'variable_33', 'variable_15', 'variable_3', '', 'variable_15', 'variable_3', '', 'variable_26', 'variable_4', 'variable_0', 'variable_2', 'variable_37', 'variable_3', 'variable_4', '', 'variable_18', 'variable_33', 'variable_4', '', 'variable_0', 'variable_2', 'variable_35', 'variable_35', 'variable_26', 'variable_2', 'variable_0', 'variable_36', 'variable_3', '', 'variable_32', 'variable_15', 'variable_30', 'variable_33', 'variable_18', '', 'variable_29', 'variable_18', 'variable_33', 'variable_4', 'variable_28', 'variable_38', 'variable_15', 'variable_3', 'variable_4', '', 'variable_33', 'variable_2', 'variable_39', 'variable_4', '', 'variable_39', 'variable_2', 'variable_35', 'variable_37', 'variable_4', 'variable_3', '', '', '', '', '', '*', '', 'variable_16', 'variable_28', 'variable_29', 'variable_32', '', 'variable_3', 'variable_29', 'variable_32', 'variable_4', '', 'variable_29', 'variable_18', 'variable_33', 'variable_4', 'variable_28', '', 'variable_37', 'variable_34', 'variable_15', 'variable_29', 'variable_34', '', 'variable_16', 'variable_15', 'variable_4', 'variable_35', 'variable_40', '.', '', '*', '/', '', '', '', '', 'variable_32', 'variable_4', 'variable_32', 'variable_3', 'variable_4', 'variable_18', '(', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_41', 'variable_2', 'variable_18', 'variable_2', ',', '', '0', ',', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_29', 'variable_3', '-', '&gt;', 'variable_40', 'variable_2', 'variable_18', 'variable_2', 'variable_7', 'variable_3', 'variable_15', 'variable_27', 'variable_4', ')', ';', '', '', '', '', 'variable_20', 'variable_26', 'variable_7', 'variable_32', 'variable_4', 'variable_3', 'variable_3', 'variable_2', 'variable_30', 'variable_4', 'variable_7', 'variable_3', 'variable_4', 'variable_18', 'variable_7', 'variable_18', 'variable_29', 'variable_7', 'variable_40', 'variable_4', 'variable_16', 'variable_2', 'variable_37', 'variable_35', 'variable_18', 'variable_3', '(', '(', 'variable_0', 'variable_29', 'variable_34', 'variable_3', 'variable_18', '', 'variable_20', 'variable_26', 'variable_7', 'variable_16', 'variable_15', 'variable_4', 'variable_35', 'variable_40', 'variable_7', 'variable_18', '*', ')', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_29', 'variable_3', '-', '&gt;', 'variable_20', 'variable_18', 'variable_28', ',', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_41', 'variable_2', 'variable_18', 'variable_2', ')', ';', '', '', '', '}', '', '', '', '*', '(', 'variable_20', 'variable_26', 'variable_7', 'variable_3', 'variable_15', 'variable_27', 'variable_4', 'variable_7', 'variable_18', '*', ')', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_21', 'variable_15', 'variable_27', 'variable_4', '', '=', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_29', 'variable_3', '-', '&gt;', 'variable_18', 'variable_2', 'variable_30', ';', '', '', '', '', 'variable_28', 'variable_4', 'variable_18', 'variable_37', 'variable_28', 'variable_34', '', 'variable_16', 'variable_37', 'variable_34', 'variable_0', '(', 'variable_3', 'variable_18', 'variable_28', 'variable_4', 'variable_2', 'variable_32', ',', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_29', 'variable_3', ',', '', 'variable_15', 'variable_18', 'variable_4', 'variable_28', '-', '&gt;', 'variable_20', 'variable_41', 'variable_2', 'variable_18', 'variable_2', ')', ';', '', '']</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
